--- a/exposan/bwaise/results/Morris.xlsx
+++ b/exposan/bwaise/results/Morris.xlsx
@@ -1128,7 +1128,7 @@
         <v>0.1302142132044975</v>
       </c>
       <c r="C5">
-        <v>0.1333457541221357</v>
+        <v>0.1333457541221358</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4870,7 +4870,7 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>4.396051923592998</v>
+        <v>4.396051923592999</v>
       </c>
       <c r="C6">
         <v>1.398832518525851</v>
@@ -4916,7 +4916,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>2.815932870791756</v>
+        <v>2.815932870791755</v>
       </c>
       <c r="C8">
         <v>35.10071120854199</v>
@@ -4985,7 +4985,7 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>1.17145504654812</v>
+        <v>1.171455046548118</v>
       </c>
       <c r="C11">
         <v>0.009786884070674162</v>
@@ -5008,7 +5008,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1.149483453559603</v>
+        <v>1.149483453559604</v>
       </c>
       <c r="C12">
         <v>22.87877526500809</v>
@@ -5031,7 +5031,7 @@
         <v>70</v>
       </c>
       <c r="B13">
-        <v>0.7301523896274497</v>
+        <v>0.7301523896274498</v>
       </c>
       <c r="C13">
         <v>0.006148595938991264</v>
@@ -5054,7 +5054,7 @@
         <v>42</v>
       </c>
       <c r="B14">
-        <v>0.6081825449852334</v>
+        <v>0.6081825449852338</v>
       </c>
       <c r="C14">
         <v>1.08592131449654</v>
@@ -5100,7 +5100,7 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.5934336071287865</v>
+        <v>0.5934336071287851</v>
       </c>
       <c r="C16">
         <v>6.867510721046672</v>
@@ -5123,7 +5123,7 @@
         <v>61</v>
       </c>
       <c r="B17">
-        <v>0.5319438882841528</v>
+        <v>0.5319438882841525</v>
       </c>
       <c r="C17">
         <v>4.46411873661434</v>
@@ -5169,7 +5169,7 @@
         <v>169</v>
       </c>
       <c r="B19">
-        <v>0.3961142863167129</v>
+        <v>0.3961142863167132</v>
       </c>
       <c r="C19">
         <v>0.8886768385803803</v>
@@ -5192,7 +5192,7 @@
         <v>77</v>
       </c>
       <c r="B20">
-        <v>0.3773220782230071</v>
+        <v>0.3773220782230068</v>
       </c>
       <c r="C20">
         <v>0.0009336222883625567</v>
@@ -5215,7 +5215,7 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.2728206416568774</v>
+        <v>0.2728206416568771</v>
       </c>
       <c r="C21">
         <v>0.4670210769673668</v>
@@ -5238,7 +5238,7 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.2640695781581953</v>
+        <v>0.264069578158195</v>
       </c>
       <c r="C22">
         <v>3.327919318114879</v>
@@ -5261,7 +5261,7 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.2490782467245952</v>
+        <v>0.2490782467245955</v>
       </c>
       <c r="C23">
         <v>1.043185558287643</v>
@@ -5284,7 +5284,7 @@
         <v>74</v>
       </c>
       <c r="B24">
-        <v>0.2430913622292168</v>
+        <v>0.2430913622292173</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>76</v>
       </c>
       <c r="B25">
-        <v>0.1926407991770401</v>
+        <v>0.1926407991770402</v>
       </c>
       <c r="C25">
         <v>0.003716655875939523</v>
@@ -5330,7 +5330,7 @@
         <v>170</v>
       </c>
       <c r="B26">
-        <v>0.1759087396337848</v>
+        <v>0.1759087396337846</v>
       </c>
       <c r="C26">
         <v>0.004757875513013943</v>
@@ -5353,7 +5353,7 @@
         <v>171</v>
       </c>
       <c r="B27">
-        <v>0.1677773019689581</v>
+        <v>0.1677773019689579</v>
       </c>
       <c r="C27">
         <v>0.005515078305938559</v>
@@ -5376,7 +5376,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1612023378911324</v>
+        <v>0.1612023378911329</v>
       </c>
       <c r="C28">
         <v>1.266117958568594</v>
@@ -5399,7 +5399,7 @@
         <v>69</v>
       </c>
       <c r="B29">
-        <v>0.1566324053090975</v>
+        <v>0.1566324053090979</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1433427575696093</v>
+        <v>0.1433427575696086</v>
       </c>
       <c r="C30">
         <v>0.3990634512976977</v>
@@ -5445,7 +5445,7 @@
         <v>172</v>
       </c>
       <c r="B31">
-        <v>0.1220491578976274</v>
+        <v>0.1220491578976281</v>
       </c>
       <c r="C31">
         <v>0.06164018875999737</v>
@@ -5468,7 +5468,7 @@
         <v>59</v>
       </c>
       <c r="B32">
-        <v>0.1150176146893928</v>
+        <v>0.1150176146893916</v>
       </c>
       <c r="C32">
         <v>0.461285629239384</v>
@@ -5491,7 +5491,7 @@
         <v>79</v>
       </c>
       <c r="B33">
-        <v>0.1076792693594548</v>
+        <v>0.1076792693594551</v>
       </c>
       <c r="C33">
         <v>0.9892781596235405</v>
@@ -5514,7 +5514,7 @@
         <v>78</v>
       </c>
       <c r="B34">
-        <v>0.106217855745108</v>
+        <v>0.1062178557451072</v>
       </c>
       <c r="C34">
         <v>1.423424641744597</v>
@@ -5560,7 +5560,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08855930578619906</v>
+        <v>0.08855930578619983</v>
       </c>
       <c r="C36">
         <v>0.4288848226918421</v>
@@ -5583,7 +5583,7 @@
         <v>46</v>
       </c>
       <c r="B37">
-        <v>0.06471119080887139</v>
+        <v>0.06471119080887146</v>
       </c>
       <c r="C37">
         <v>0.276586994494266</v>
@@ -5606,7 +5606,7 @@
         <v>103</v>
       </c>
       <c r="B38">
-        <v>0.06413278321809272</v>
+        <v>0.06413278321809326</v>
       </c>
       <c r="C38">
         <v>0.05637971163134736</v>
@@ -5629,7 +5629,7 @@
         <v>97</v>
       </c>
       <c r="B39">
-        <v>0.04877023622163505</v>
+        <v>0.04877023622163527</v>
       </c>
       <c r="C39">
         <v>0.04230433462997922</v>
@@ -5675,7 +5675,7 @@
         <v>80</v>
       </c>
       <c r="B41">
-        <v>0.04647279428297715</v>
+        <v>0.04647279428297695</v>
       </c>
       <c r="C41">
         <v>0.002971596605436133</v>
@@ -5744,7 +5744,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.03545963784787813</v>
+        <v>0.03545963784787807</v>
       </c>
       <c r="C44">
         <v>0.2916832485107413</v>
@@ -5767,7 +5767,7 @@
         <v>58</v>
       </c>
       <c r="B45">
-        <v>0.03082668573317119</v>
+        <v>0.03082668573316989</v>
       </c>
       <c r="C45">
         <v>0.02734638883257876</v>
@@ -5790,7 +5790,7 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>0.03076648522852241</v>
+        <v>0.03076648522852334</v>
       </c>
       <c r="C46">
         <v>0.02653766612220352</v>
@@ -5813,7 +5813,7 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <v>0.02585070116126353</v>
+        <v>0.0258507011612642</v>
       </c>
       <c r="C47">
         <v>0.1243252866150652</v>
@@ -5836,7 +5836,7 @@
         <v>34</v>
       </c>
       <c r="B48">
-        <v>0.02253864906438182</v>
+        <v>0.02253864906438174</v>
       </c>
       <c r="C48">
         <v>0.2767965068815325</v>
@@ -5859,7 +5859,7 @@
         <v>85</v>
       </c>
       <c r="B49">
-        <v>0.02209705992446826</v>
+        <v>0.02209705992446803</v>
       </c>
       <c r="C49">
         <v>0.06554134523400883</v>
@@ -5882,7 +5882,7 @@
         <v>94</v>
       </c>
       <c r="B50">
-        <v>0.02188450035382206</v>
+        <v>0.02188450035382259</v>
       </c>
       <c r="C50">
         <v>0.01873958403941796</v>
@@ -5905,7 +5905,7 @@
         <v>81</v>
       </c>
       <c r="B51">
-        <v>0.01812342527853095</v>
+        <v>0.01812342527853091</v>
       </c>
       <c r="C51">
         <v>0.003086673616002145</v>
@@ -5997,7 +5997,7 @@
         <v>30</v>
       </c>
       <c r="B55">
-        <v>0.01502972507910849</v>
+        <v>0.01502972507910822</v>
       </c>
       <c r="C55">
         <v>0.09764672078130032</v>
@@ -6020,7 +6020,7 @@
         <v>93</v>
       </c>
       <c r="B56">
-        <v>0.01420121304938266</v>
+        <v>0.01420121304938319</v>
       </c>
       <c r="C56">
         <v>0.01386974565169439</v>
@@ -6158,7 +6158,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>0.01075660947811003</v>
+        <v>0.01075660947811044</v>
       </c>
       <c r="C62">
         <v>0.01596756402827237</v>
@@ -6181,7 +6181,7 @@
         <v>60</v>
       </c>
       <c r="B63">
-        <v>0.01011183175530569</v>
+        <v>0.01011183175530619</v>
       </c>
       <c r="C63">
         <v>0.009147476811996125</v>
@@ -6204,7 +6204,7 @@
         <v>82</v>
       </c>
       <c r="B64">
-        <v>0.009052284937670374</v>
+        <v>0.009052284937670107</v>
       </c>
       <c r="C64">
         <v>0.0002038686560730696</v>
@@ -6227,7 +6227,7 @@
         <v>92</v>
       </c>
       <c r="B65">
-        <v>0.008658809162892323</v>
+        <v>0.008658809162894455</v>
       </c>
       <c r="C65">
         <v>0.02116477923525348</v>
@@ -6296,7 +6296,7 @@
         <v>108</v>
       </c>
       <c r="B68">
-        <v>0.007291111283727636</v>
+        <v>0.007291111283727702</v>
       </c>
       <c r="C68">
         <v>0.7582914842723671</v>
@@ -6319,7 +6319,7 @@
         <v>96</v>
       </c>
       <c r="B69">
-        <v>0.007178157321073964</v>
+        <v>0.007178157321072432</v>
       </c>
       <c r="C69">
         <v>0.006563703903064599</v>
@@ -6342,7 +6342,7 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.006680698991710044</v>
+        <v>0.006680698991711376</v>
       </c>
       <c r="C70">
         <v>0.06675086677471125</v>
@@ -6365,7 +6365,7 @@
         <v>53</v>
       </c>
       <c r="B71">
-        <v>0.006422544468436708</v>
+        <v>0.006422544468436575</v>
       </c>
       <c r="C71">
         <v>0.02552492335444079</v>
@@ -6457,7 +6457,7 @@
         <v>52</v>
       </c>
       <c r="B75">
-        <v>0.005188163607678886</v>
+        <v>0.005188163607679019</v>
       </c>
       <c r="C75">
         <v>0.004430862795610402</v>
@@ -6480,7 +6480,7 @@
         <v>119</v>
       </c>
       <c r="B76">
-        <v>0.005188163607678753</v>
+        <v>0.005188163607678886</v>
       </c>
       <c r="C76">
         <v>0.1722748696693937</v>
@@ -6549,7 +6549,7 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.003962559119860654</v>
+        <v>0.003962559119861786</v>
       </c>
       <c r="C79">
         <v>0.01061359848791188</v>
@@ -6618,7 +6618,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003850321751933122</v>
+        <v>0.003850321751932223</v>
       </c>
       <c r="C82">
         <v>0.02062167661456451</v>
@@ -6733,7 +6733,7 @@
         <v>36</v>
       </c>
       <c r="B87">
-        <v>0.003279691212654612</v>
+        <v>0.003279691212654479</v>
       </c>
       <c r="C87">
         <v>0.01093917536296374</v>
@@ -6848,7 +6848,7 @@
         <v>83</v>
       </c>
       <c r="B92">
-        <v>0.00190357298135484</v>
+        <v>0.001903572981354274</v>
       </c>
       <c r="C92">
         <v>0.01593421762962812</v>
@@ -6940,7 +6940,7 @@
         <v>90</v>
       </c>
       <c r="B96">
-        <v>0.0007166080183816037</v>
+        <v>0.0007166080183826695</v>
       </c>
       <c r="C96">
         <v>0.003863120046725754</v>
@@ -8077,7 +8077,7 @@
         <v>192</v>
       </c>
       <c r="B11">
-        <v>3.799893237757824</v>
+        <v>3.799893237757822</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>73</v>
       </c>
       <c r="B12">
-        <v>3.734772045542154</v>
+        <v>3.734772045542152</v>
       </c>
       <c r="C12">
         <v>2.741370922398185</v>
@@ -8238,7 +8238,7 @@
         <v>74</v>
       </c>
       <c r="B18">
-        <v>1.688504403872777</v>
+        <v>1.688504403872778</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>0.5079185623034281</v>
+        <v>0.507918562303427</v>
       </c>
       <c r="C23">
         <v>1.893745756106506</v>
@@ -8468,7 +8468,7 @@
         <v>77</v>
       </c>
       <c r="B28">
-        <v>0.2231685482619268</v>
+        <v>0.2231685482619278</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>56</v>
       </c>
       <c r="B33">
-        <v>0.08641958859430617</v>
+        <v>0.08641958859430829</v>
       </c>
       <c r="C33">
         <v>0.4596367067236493</v>
@@ -8721,7 +8721,7 @@
         <v>80</v>
       </c>
       <c r="B39">
-        <v>0.04668912210443388</v>
+        <v>0.04668912210443495</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.03490774033486214</v>
+        <v>0.03490774033486321</v>
       </c>
       <c r="C42">
         <v>0.6952958283706395</v>
@@ -8813,7 +8813,7 @@
         <v>37</v>
       </c>
       <c r="B43">
-        <v>0.03389033741453051</v>
+        <v>0.03389033741452945</v>
       </c>
       <c r="C43">
         <v>0.1336413820726925</v>
@@ -8997,7 +8997,7 @@
         <v>88</v>
       </c>
       <c r="B51">
-        <v>0.004031782597061451</v>
+        <v>0.004031782597062517</v>
       </c>
       <c r="C51">
         <v>0.1741985416593685</v>
@@ -9066,7 +9066,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.001901110770516823</v>
+        <v>0.001901110770517356</v>
       </c>
       <c r="C54">
         <v>0.01181293410465594</v>
@@ -9089,7 +9089,7 @@
         <v>92</v>
       </c>
       <c r="B55">
-        <v>0.0005140038871646269</v>
+        <v>0.000514003887163561</v>
       </c>
       <c r="C55">
         <v>5.166465324057956E-07</v>

--- a/exposan/bwaise/results/Morris.xlsx
+++ b/exposan/bwaise/results/Morris.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6CAA8ABB1033F9BC0E068904A7FCFCC611A95032" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F83B0E8-36F9-1B4B-81DC-9EBCC0762975}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22020" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="sysB" sheetId="3" r:id="rId3"/>
     <sheet name="sysC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -652,8 +658,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +722,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -762,7 +776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,9 +808,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,6 +860,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1003,14 +1053,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1089,12 +1146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.1689333019093651</v>
+        <v>0.16893330190936509</v>
       </c>
       <c r="C3">
         <v>0.2017239259175225</v>
@@ -1103,24 +1160,24 @@
         <v>0.2031985476762381</v>
       </c>
       <c r="F3">
-        <v>0.2122406078917291</v>
+        <v>0.21224060789172911</v>
       </c>
       <c r="G3">
-        <v>0.1986585890062809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>0.19865858900628089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.1373773676195549</v>
+        <v>0.13737736761955491</v>
       </c>
       <c r="C4">
-        <v>0.1441872801254249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>0.14418728012542489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1128,21 +1185,21 @@
         <v>0.1302142132044975</v>
       </c>
       <c r="C5">
-        <v>0.1333457541221358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>0.13334575412213581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>0.06563393899699446</v>
+        <v>6.5633938996994462E-2</v>
       </c>
       <c r="C6">
         <v>0.1667489375940035</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1153,15 +1210,15 @@
         <v>0.5058204152029987</v>
       </c>
       <c r="G7">
-        <v>0.3489508633563815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>0.34895086335638148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E8">
-        <v>0.4090987853396384</v>
+        <v>0.40909878533963839</v>
       </c>
       <c r="F8">
         <v>0.1804332082448715</v>
@@ -1170,21 +1227,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0.2651120296423162</v>
+        <v>0.26511202964231623</v>
       </c>
       <c r="F9">
-        <v>0.3296956444878595</v>
+        <v>0.32969564448785948</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0.9394597940550595</v>
+        <v>0.93945979405505953</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1193,100 +1250,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>0.1764576130527636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>0.17645761305276361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H11">
-        <v>0.6212748691540178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.62127486915401775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H12">
-        <v>0.3641815229384753</v>
+        <v>0.36418152293847528</v>
       </c>
       <c r="I12">
-        <v>0.5215156089348993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>0.52151560893489934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H13">
-        <v>0.2154531538385571</v>
+        <v>0.21545315383855709</v>
       </c>
       <c r="J13">
-        <v>0.8828418432771172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>0.88284184327711723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H14">
-        <v>0.1797853613597027</v>
+        <v>0.17978536135970269</v>
       </c>
       <c r="J14">
-        <v>0.5848075874071633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.58480758740716332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.535825898894599</v>
+        <v>0.53582589889459897</v>
       </c>
       <c r="L15">
-        <v>0.9934591787033116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>0.99345917870331157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.2064926599034844</v>
+        <v>0.20649265990348439</v>
       </c>
       <c r="L16">
-        <v>0.4899601240247995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>0.48996012402479949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.03892977144296056</v>
+        <v>3.8929771442960559E-2</v>
       </c>
       <c r="L17">
-        <v>0.08863335052678806</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>8.8633350526788057E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.03117865717487865</v>
+        <v>3.1178657174878648E-2</v>
       </c>
       <c r="N18">
-        <v>0.05492111771046689</v>
+        <v>5.4921117710466892E-2</v>
       </c>
       <c r="O18">
-        <v>0.08577122726143056</v>
+        <v>8.5771227261430563E-2</v>
       </c>
       <c r="Q18">
         <v>0.1836253512539833</v>
@@ -1298,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1309,55 +1366,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N20">
-        <v>0.7686948114081487</v>
+        <v>0.76869481140814866</v>
       </c>
       <c r="O20">
-        <v>0.01762421388026229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>1.762421388026229E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="N21">
-        <v>0.6057430730823842</v>
+        <v>0.60574307308238418</v>
       </c>
       <c r="P21">
-        <v>0.2924421161892891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>0.29244211618928911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J22">
-        <v>0.1356674800071125</v>
+        <v>0.13566748000711251</v>
       </c>
       <c r="M22">
-        <v>0.346407922649098</v>
+        <v>0.34640792264909798</v>
       </c>
       <c r="N22">
-        <v>0.07237688107896481</v>
+        <v>7.2376881078964811E-2</v>
       </c>
       <c r="O22">
-        <v>0.0682038161100525</v>
+        <v>6.8203816110052495E-2</v>
       </c>
       <c r="Q22">
         <v>0.1161380020901679</v>
       </c>
       <c r="R22">
-        <v>0.1304975237852473</v>
+        <v>0.13049752378524729</v>
       </c>
       <c r="S22">
-        <v>0.8314165130403031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>0.83141651304030306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1368,18 +1425,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="Q24">
-        <v>0.02148405648229892</v>
+        <v>2.1484056482298921E-2</v>
       </c>
       <c r="R24">
-        <v>0.02809336804253368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>2.8093368042533678E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1387,42 +1444,42 @@
         <v>2.558834771194773E-15</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I26">
-        <v>0.3817792131300187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>0.38177921313001872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I27">
-        <v>0.1544989001677644</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>0.15449890016776441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L28">
-        <v>0.06434892347394787</v>
+        <v>6.4348923473947869E-2</v>
       </c>
       <c r="M28">
-        <v>0.8782158541217163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>0.87821585412171632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="O29">
-        <v>9.04701598210147E-16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>9.0470159821014698E-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1430,53 +1487,53 @@
         <v>1.957607990385558E-15</v>
       </c>
       <c r="S30">
-        <v>9.817994949240323E-15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>9.8179949492403229E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D31">
-        <v>0.3410445837944199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>0.34104458379441988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D32">
-        <v>0.3064216791670804</v>
+        <v>0.30642167916708041</v>
       </c>
       <c r="J32">
         <v>0.1122464720604974</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D33">
-        <v>0.274603482785812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>0.27460348278581198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G34">
-        <v>0.2489775021904259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>0.24897750219042589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G35">
-        <v>0.1428375028271335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>0.14283750282713351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1484,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -1492,23 +1549,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="M38">
-        <v>0.6824156646806876</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>0.68241566468068759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M39">
-        <v>0.3025196963963758</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>0.30251969639637583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -1516,15 +1573,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P41">
-        <v>0.454278335264852</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>0.45427833526485201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1532,15 +1589,15 @@
         <v>0.361353019088276</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P43">
-        <v>0.1425288972891045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>0.14252889728910451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1548,12 +1605,12 @@
         <v>0.2171044628068271</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="S45">
-        <v>7.480377104183104E-15</v>
+        <v>7.4803771041831038E-15</v>
       </c>
     </row>
   </sheetData>
@@ -1562,14 +1619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1589,15 +1646,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>38.97995319269209</v>
+        <v>38.979953192692093</v>
       </c>
       <c r="C2">
-        <v>50.41486598228748</v>
+        <v>50.414865982287481</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1606,41 +1663,41 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="G2">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>6.585012201113974</v>
+        <v>6.5850122011139742</v>
       </c>
       <c r="C3">
-        <v>8.949775761304815</v>
+        <v>8.9497757613048154</v>
       </c>
       <c r="D3">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="E3">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="F3">
         <v>2.498001805406602E-17</v>
       </c>
       <c r="G3">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>5.354963359545502</v>
+        <v>5.3549633595455024</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1658,30 +1715,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5">
-        <v>5.075743935734542</v>
+        <v>5.0757439357345424</v>
       </c>
       <c r="C5">
         <v>1.11196245348685</v>
       </c>
       <c r="D5">
-        <v>0.0002145710151752134</v>
+        <v>2.145710151752134E-4</v>
       </c>
       <c r="E5">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="F5">
-        <v>7.494005416219807E-17</v>
+        <v>7.4940054162198071E-17</v>
       </c>
       <c r="G5">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1704,35 +1761,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7">
-        <v>2.238134967307545</v>
+        <v>2.2381349673075448</v>
       </c>
       <c r="C7">
-        <v>15.43420773643705</v>
+        <v>15.434207736437051</v>
       </c>
       <c r="D7">
         <v>0.108280963803518</v>
       </c>
       <c r="E7">
-        <v>0.3600941067631699</v>
+        <v>0.36009410676316989</v>
       </c>
       <c r="F7">
-        <v>5.828670879282072E-17</v>
+        <v>5.8286708792820721E-17</v>
       </c>
       <c r="G7">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B8">
-        <v>2.123260360007074</v>
+        <v>2.1232603600070741</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1750,12 +1807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B9">
-        <v>1.391046846095153</v>
+        <v>1.3910468460951531</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1773,12 +1830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B10">
-        <v>1.117299264745432</v>
+        <v>1.1172992647454321</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1796,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -1819,35 +1876,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B12">
-        <v>0.7545988028525037</v>
+        <v>0.75459880285250369</v>
       </c>
       <c r="C12">
-        <v>3.02582020176276</v>
+        <v>3.0258202017627598</v>
       </c>
       <c r="D12">
         <v>5.412337245047638E-17</v>
       </c>
       <c r="E12">
-        <v>8.118505867571457E-17</v>
+        <v>8.1185058675714567E-17</v>
       </c>
       <c r="F12">
         <v>9.159339953157541E-17</v>
       </c>
       <c r="G12">
-        <v>1.831867990631508E-16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1.8318679906315079E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B13">
-        <v>0.6464570291780667</v>
+        <v>0.64645702917806669</v>
       </c>
       <c r="C13">
         <v>4.519847043033951</v>
@@ -1856,21 +1913,21 @@
         <v>5.412337245047638E-17</v>
       </c>
       <c r="E13">
-        <v>1.186550857568136E-16</v>
+        <v>1.1865508575681359E-16</v>
       </c>
       <c r="F13">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G13">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B14">
-        <v>0.4053488972895238</v>
+        <v>0.40534889728952378</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1888,12 +1945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B15">
-        <v>0.3357505238698624</v>
+        <v>0.33575052386986243</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1911,35 +1968,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B16">
-        <v>0.325197957390258</v>
+        <v>0.32519795739025797</v>
       </c>
       <c r="C16">
         <v>1.530531949879679</v>
       </c>
       <c r="D16">
-        <v>5.018227247910456E-07</v>
+        <v>5.0182272479104562E-7</v>
       </c>
       <c r="E16">
         <v>1.436351038108796E-16</v>
       </c>
       <c r="F16">
-        <v>1.665334536937735E-16</v>
+        <v>1.6653345369377351E-16</v>
       </c>
       <c r="G16">
-        <v>1.831867990631508E-16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1.8318679906315079E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B17">
-        <v>0.3106883542328936</v>
+        <v>0.31068835423289359</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1957,12 +2014,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B18">
-        <v>0.2774815275734193</v>
+        <v>0.27748152757341932</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1980,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1988,45 +2045,45 @@
         <v>0.2339561857491223</v>
       </c>
       <c r="C19">
-        <v>2.874075986367647</v>
+        <v>2.8740759863676471</v>
       </c>
       <c r="D19">
-        <v>3.842596258922526E-06</v>
+        <v>3.8425962589225256E-6</v>
       </c>
       <c r="E19">
         <v>0.1929477484430232</v>
       </c>
       <c r="F19">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G19">
         <v>1.332267629550188E-16</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B20">
-        <v>0.1947240126334057</v>
+        <v>0.19472401263340569</v>
       </c>
       <c r="C20">
         <v>1.46423661608669</v>
       </c>
       <c r="D20">
-        <v>7.219285152623711E-06</v>
+        <v>7.219285152623711E-6</v>
       </c>
       <c r="E20">
-        <v>1.873501354054952E-16</v>
+        <v>1.8735013540549519E-16</v>
       </c>
       <c r="F20">
         <v>1.415534356397074E-16</v>
       </c>
       <c r="G20">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2034,22 +2091,22 @@
         <v>0.1139968814967998</v>
       </c>
       <c r="C21">
-        <v>0.4790286893570599</v>
+        <v>0.47902868935705989</v>
       </c>
       <c r="D21">
-        <v>6.798814244507456E-08</v>
+        <v>6.7988142445074559E-8</v>
       </c>
       <c r="E21">
-        <v>7.077671781985372E-17</v>
+        <v>7.0776717819853725E-17</v>
       </c>
       <c r="F21">
         <v>0.1924145411027777</v>
       </c>
       <c r="G21">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2057,13 +2114,13 @@
         <v>0.1097285031299514</v>
       </c>
       <c r="C22">
-        <v>0.4068172085611046</v>
+        <v>0.40681720856110459</v>
       </c>
       <c r="D22">
-        <v>9.625572510510438E-08</v>
+        <v>9.6255725105104381E-8</v>
       </c>
       <c r="E22">
-        <v>3.538835890992686E-17</v>
+        <v>3.5388358909926862E-17</v>
       </c>
       <c r="F22">
         <v>0.1479080593851852</v>
@@ -2072,7 +2129,7 @@
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -2080,22 +2137,22 @@
         <v>0.1078975891518818</v>
       </c>
       <c r="C23">
-        <v>0.5953783588596541</v>
+        <v>0.59537835885965407</v>
       </c>
       <c r="D23">
-        <v>6.969361358730164E-07</v>
+        <v>6.9693613587301637E-7</v>
       </c>
       <c r="E23">
-        <v>1.623701173514291E-16</v>
+        <v>1.6237011735142911E-16</v>
       </c>
       <c r="F23">
-        <v>1.249000902703301E-16</v>
+        <v>1.2490009027033011E-16</v>
       </c>
       <c r="G23">
-        <v>1.831867990631508E-16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1.8318679906315079E-16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2103,56 +2160,56 @@
         <v>0.1010054512020893</v>
       </c>
       <c r="C24">
-        <v>0.435328433267286</v>
+        <v>0.43532843326728599</v>
       </c>
       <c r="D24">
-        <v>3.283593253716743E-07</v>
+        <v>3.283593253716743E-7</v>
       </c>
       <c r="E24">
-        <v>8.534839501805891E-17</v>
+        <v>8.5348395018058914E-17</v>
       </c>
       <c r="F24">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="G24">
-        <v>4.829470157119431E-16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>4.8294701571194306E-16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25">
-        <v>0.09711255176297309</v>
+        <v>9.7112551762973093E-2</v>
       </c>
       <c r="C25">
-        <v>0.9183696766225751</v>
+        <v>0.91836967662257507</v>
       </c>
       <c r="D25">
-        <v>8.234934615464207E-07</v>
+        <v>8.2349346154642067E-7</v>
       </c>
       <c r="E25">
-        <v>0.07435678992109626</v>
+        <v>7.4356789921096261E-2</v>
       </c>
       <c r="F25">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G25">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B26">
-        <v>0.08151419107551798</v>
+        <v>8.151419107551798E-2</v>
       </c>
       <c r="C26">
-        <v>0.2511400458788923</v>
+        <v>0.25114004587889233</v>
       </c>
       <c r="D26">
-        <v>1.065046590878471E-07</v>
+        <v>1.065046590878471E-7</v>
       </c>
       <c r="E26">
         <v>2.498001805406602E-17</v>
@@ -2161,44 +2218,44 @@
         <v>0.1165537754333333</v>
       </c>
       <c r="G26">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B27">
-        <v>0.07870476478650681</v>
+        <v>7.8704764786506815E-2</v>
       </c>
       <c r="C27">
-        <v>0.3645378878367975</v>
+        <v>0.36453788783679753</v>
       </c>
       <c r="D27">
-        <v>4.839795372427181E-07</v>
+        <v>4.8397953724271807E-7</v>
       </c>
       <c r="E27">
-        <v>7.28583859910259E-17</v>
+        <v>7.2858385991025898E-17</v>
       </c>
       <c r="F27">
         <v>9.159339953157541E-17</v>
       </c>
       <c r="G27">
-        <v>2.331468351712829E-16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>2.3314683517128288E-16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B28">
-        <v>0.07002389795582933</v>
+        <v>7.0023897955829334E-2</v>
       </c>
       <c r="C28">
-        <v>0.3082531885384335</v>
+        <v>0.30825318853843348</v>
       </c>
       <c r="D28">
-        <v>2.931667135802618E-07</v>
+        <v>2.9316671358026179E-7</v>
       </c>
       <c r="E28">
         <v>9.159339953157541E-17</v>
@@ -2207,61 +2264,61 @@
         <v>1.332267629550188E-16</v>
       </c>
       <c r="G28">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B29">
-        <v>0.06587886947819617</v>
+        <v>6.587886947819617E-2</v>
       </c>
       <c r="C29">
-        <v>0.3112776572401997</v>
+        <v>0.31127765724019968</v>
       </c>
       <c r="D29">
-        <v>3.40861335398901E-07</v>
+        <v>3.4086133539890098E-7</v>
       </c>
       <c r="E29">
         <v>9.159339953157541E-17</v>
       </c>
       <c r="F29">
-        <v>5.828670879282072E-17</v>
+        <v>5.8286708792820721E-17</v>
       </c>
       <c r="G29">
-        <v>0.1887370849999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.18873708499999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B30">
-        <v>0.05385864108124441</v>
+        <v>5.3858641081244413E-2</v>
       </c>
       <c r="C30">
-        <v>8.005477889108853</v>
+        <v>8.0054778891088532</v>
       </c>
       <c r="D30">
-        <v>3.601264057753739E-07</v>
+        <v>3.6012640577537393E-7</v>
       </c>
       <c r="E30">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="F30">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G30">
-        <v>2.997602166487923E-16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2.9976021664879229E-16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B31">
-        <v>0.03983973173714328</v>
+        <v>3.983973173714328E-2</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2279,104 +2336,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.03613002403177865</v>
+        <v>3.6130024031778653E-2</v>
       </c>
       <c r="C32">
-        <v>0.2287646802606242</v>
+        <v>0.22876468026062419</v>
       </c>
       <c r="D32">
-        <v>8.723786079987277E-06</v>
+        <v>8.7237860799872773E-6</v>
       </c>
       <c r="E32">
-        <v>0.01122725070546302</v>
+        <v>1.1227250705463021E-2</v>
       </c>
       <c r="F32">
-        <v>0.01056762166111113</v>
+        <v>1.056762166111113E-2</v>
       </c>
       <c r="G32">
-        <v>0.03465691352777787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>3.4656913527777868E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02668529455627793</v>
+        <v>2.6685294556277932E-2</v>
       </c>
       <c r="C33">
-        <v>0.3054203933536472</v>
+        <v>0.30542039335364718</v>
       </c>
       <c r="D33">
-        <v>0.005313964185703017</v>
+        <v>5.3139641857030172E-3</v>
       </c>
       <c r="E33">
-        <v>0.009994929276550839</v>
+        <v>9.9949292765508391E-3</v>
       </c>
       <c r="F33">
-        <v>0.01392636435925933</v>
+        <v>1.3926364359259331E-2</v>
       </c>
       <c r="G33">
-        <v>0.02191954797222219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>2.1919547972222189E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B34">
-        <v>0.02533019360890165</v>
+        <v>2.5330193608901649E-2</v>
       </c>
       <c r="C34">
-        <v>0.1795554377877731</v>
+        <v>0.17955543778777311</v>
       </c>
       <c r="D34">
-        <v>1.150691876596055E-07</v>
+        <v>1.1506918765960551E-7</v>
       </c>
       <c r="E34">
-        <v>9.783840404509192E-17</v>
+        <v>9.7838404045091918E-17</v>
       </c>
       <c r="F34">
-        <v>1.582067810090848E-16</v>
+        <v>1.5820678100908481E-16</v>
       </c>
       <c r="G34">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01993384099706708</v>
+        <v>1.9933840997067079E-2</v>
       </c>
       <c r="C35">
-        <v>0.3275724775946806</v>
+        <v>0.32757247759468061</v>
       </c>
       <c r="D35">
-        <v>2.398667561014089E-07</v>
+        <v>2.3986675610140888E-7</v>
       </c>
       <c r="E35">
-        <v>0.01401838127424724</v>
+        <v>1.4018381274247239E-2</v>
       </c>
       <c r="F35">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G35">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B36">
-        <v>0.01626042608728127</v>
+        <v>1.626042608728127E-2</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2394,67 +2451,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B37">
-        <v>0.008288864782990757</v>
+        <v>8.2888647829907573E-3</v>
       </c>
       <c r="C37">
-        <v>0.003732961453038852</v>
+        <v>3.732961453038852E-3</v>
       </c>
       <c r="D37">
-        <v>1.494815624031309E-06</v>
+        <v>1.4948156240313091E-6</v>
       </c>
       <c r="E37">
-        <v>9.575673587391976E-17</v>
+        <v>9.5756735873919757E-17</v>
       </c>
       <c r="F37">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="G37">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B38">
-        <v>0.007462012190478351</v>
+        <v>7.4620121904783506E-3</v>
       </c>
       <c r="C38">
-        <v>0.05753486657679234</v>
+        <v>5.753486657679234E-2</v>
       </c>
       <c r="D38">
-        <v>2.049356776129274E-06</v>
+        <v>2.0493567761292739E-6</v>
       </c>
       <c r="E38">
-        <v>0.004040027167801784</v>
+        <v>4.0400271678017836E-3</v>
       </c>
       <c r="F38">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="G38">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B39">
-        <v>0.005760198647833148</v>
+        <v>5.7601986478331476E-3</v>
       </c>
       <c r="C39">
-        <v>0.4741585140308597</v>
+        <v>0.47415851403085968</v>
       </c>
       <c r="D39">
-        <v>0.01946733220579237</v>
+        <v>1.946733220579237E-2</v>
       </c>
       <c r="E39">
-        <v>0.003279056096439411</v>
+        <v>3.279056096439411E-3</v>
       </c>
       <c r="F39">
         <v>4.163336342344337E-17</v>
@@ -2463,136 +2520,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B40">
-        <v>0.005755936536824491</v>
+        <v>5.7559365368244908E-3</v>
       </c>
       <c r="C40">
-        <v>0.06319338890979079</v>
+        <v>6.3193388909790787E-2</v>
       </c>
       <c r="D40">
-        <v>2.909673736804785E-06</v>
+        <v>2.9096737368047849E-6</v>
       </c>
       <c r="E40">
-        <v>0.003548829289560664</v>
+        <v>3.5488292895606639E-3</v>
       </c>
       <c r="F40">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G40">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B41">
-        <v>0.005152180537302886</v>
+        <v>5.1521805373028863E-3</v>
       </c>
       <c r="C41">
-        <v>0.04005592280881191</v>
+        <v>4.0055922808811907E-2</v>
       </c>
       <c r="D41">
-        <v>1.953198385737376E-08</v>
+        <v>1.9531983857373761E-8</v>
       </c>
       <c r="E41">
         <v>1.686151218649457E-16</v>
       </c>
       <c r="F41">
-        <v>5.828670879282072E-17</v>
+        <v>5.8286708792820721E-17</v>
       </c>
       <c r="G41">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.004899414354784071</v>
+        <v>4.8994143547840714E-3</v>
       </c>
       <c r="C42">
-        <v>0.0743331090749952</v>
+        <v>7.4333109074995199E-2</v>
       </c>
       <c r="D42">
-        <v>6.245004513516506E-18</v>
+        <v>6.2450045135165057E-18</v>
       </c>
       <c r="E42">
-        <v>0.002954426526806044</v>
+        <v>2.9544265268060441E-3</v>
       </c>
       <c r="F42">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B43">
-        <v>0.004692246188478899</v>
+        <v>4.6922461884788989E-3</v>
       </c>
       <c r="C43">
-        <v>0.02877989675832548</v>
+        <v>2.8779896758325482E-2</v>
       </c>
       <c r="D43">
-        <v>1.168617566132957E-07</v>
+        <v>1.1686175661329569E-7</v>
       </c>
       <c r="E43">
-        <v>0.002880733986110685</v>
+        <v>2.8807339861106852E-3</v>
       </c>
       <c r="F43">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G43">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.004045367615288731</v>
+        <v>4.0453676152887308E-3</v>
       </c>
       <c r="C44">
-        <v>0.02914566892743586</v>
+        <v>2.914566892743586E-2</v>
       </c>
       <c r="D44">
-        <v>4.75545078069961E-07</v>
+        <v>4.7554507806996098E-7</v>
       </c>
       <c r="E44">
-        <v>0.00304442928622814</v>
+        <v>3.0444292862281401E-3</v>
       </c>
       <c r="F44">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="G44">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B45">
-        <v>0.003568277544443621</v>
+        <v>3.5682775444436212E-3</v>
       </c>
       <c r="C45">
-        <v>0.1620870378603957</v>
+        <v>0.16208703786039569</v>
       </c>
       <c r="D45">
-        <v>1.140634861666878E-07</v>
+        <v>1.140634861666878E-7</v>
       </c>
       <c r="E45">
-        <v>0.002464959862312609</v>
+        <v>2.464959862312609E-3</v>
       </c>
       <c r="F45">
         <v>4.163336342344337E-17</v>
@@ -2601,314 +2658,314 @@
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B46">
-        <v>0.002353373701496642</v>
+        <v>2.3533737014966422E-3</v>
       </c>
       <c r="C46">
-        <v>0.01176570114085185</v>
+        <v>1.1765701140851849E-2</v>
       </c>
       <c r="D46">
-        <v>4.856664526792232E-09</v>
+        <v>4.8566645267922318E-9</v>
       </c>
       <c r="E46">
-        <v>7.28583859910259E-17</v>
+        <v>7.2858385991025898E-17</v>
       </c>
       <c r="F46">
-        <v>1.249000902703301E-16</v>
+        <v>1.2490009027033011E-16</v>
       </c>
       <c r="G46">
-        <v>1.665334536937735E-16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B47">
-        <v>0.00175323135603902</v>
+        <v>1.7532313560390199E-3</v>
       </c>
       <c r="C47">
-        <v>0.02293161151979368</v>
+        <v>2.2931611519793681E-2</v>
       </c>
       <c r="D47">
-        <v>6.162675943496842E-06</v>
+        <v>6.1626759434968424E-6</v>
       </c>
       <c r="E47">
-        <v>3.747002708109904E-17</v>
+        <v>3.7470027081099042E-17</v>
       </c>
       <c r="F47">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G47">
-        <v>0.004054838194444449</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>4.0548381944444491E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B48">
-        <v>0.001716814385702126</v>
+        <v>1.7168143857021259E-3</v>
       </c>
       <c r="C48">
-        <v>0.06143488830517754</v>
+        <v>6.1434888305177543E-2</v>
       </c>
       <c r="D48">
-        <v>3.022146617334687E-08</v>
+        <v>3.0221466173346867E-8</v>
       </c>
       <c r="E48">
-        <v>0.001109824633487071</v>
+        <v>1.1098246334870711E-3</v>
       </c>
       <c r="F48">
-        <v>2.081668171172169E-17</v>
+        <v>2.0816681711721691E-17</v>
       </c>
       <c r="G48">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B49">
-        <v>0.0005462405561806882</v>
+        <v>5.4624055618068823E-4</v>
       </c>
       <c r="C49">
-        <v>0.09142370220335021</v>
+        <v>9.1423702203350207E-2</v>
       </c>
       <c r="D49">
-        <v>0.0001269863327957914</v>
+        <v>1.2698633279579141E-4</v>
       </c>
       <c r="E49">
-        <v>5.828670879282072E-17</v>
+        <v>5.8286708792820721E-17</v>
       </c>
       <c r="F49">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="G49">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B50">
-        <v>0.0004044289794041145</v>
+        <v>4.0442897940411448E-4</v>
       </c>
       <c r="C50">
-        <v>0.004663780363575931</v>
+        <v>4.6637803635759308E-3</v>
       </c>
       <c r="D50">
-        <v>9.007950431405565E-08</v>
+        <v>9.0079504314055647E-8</v>
       </c>
       <c r="E50">
-        <v>0.0002456444444445108</v>
+        <v>2.4564444444451081E-4</v>
       </c>
       <c r="F50">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="G50">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B51">
-        <v>0.0002667003856807959</v>
+        <v>2.6670038568079593E-4</v>
       </c>
       <c r="C51">
-        <v>0.103725288038798</v>
+        <v>0.10372528803879801</v>
       </c>
       <c r="D51">
-        <v>4.80604973612811E-05</v>
+        <v>4.8060497361281097E-5</v>
       </c>
       <c r="E51">
         <v>1.040834085586084E-16</v>
       </c>
       <c r="F51">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="G51">
-        <v>1.665334536937735E-16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B52">
-        <v>0.0001904676725914989</v>
+        <v>1.904676725914989E-4</v>
       </c>
       <c r="C52">
-        <v>0.04851338121200444</v>
+        <v>4.8513381212004443E-2</v>
       </c>
       <c r="D52">
-        <v>3.690458562417981E-05</v>
+        <v>3.690458562417981E-5</v>
       </c>
       <c r="E52">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="F52">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G52">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B53">
-        <v>0.0001309659080774406</v>
+        <v>1.3096590807744061E-4</v>
       </c>
       <c r="C53">
         <v>3.156506647431248</v>
       </c>
       <c r="D53">
-        <v>0.0394339263032111</v>
+        <v>3.9433926303211103E-2</v>
       </c>
       <c r="E53">
-        <v>7.910339050454241E-17</v>
+        <v>7.9103390504542406E-17</v>
       </c>
       <c r="F53">
         <v>1.415534356397074E-16</v>
       </c>
       <c r="G53">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B54">
-        <v>0.0001268821912047802</v>
+        <v>1.2688219120478021E-4</v>
       </c>
       <c r="C54">
-        <v>0.03205064562566599</v>
+        <v>3.2050645625665987E-2</v>
       </c>
       <c r="D54">
-        <v>1.817544338164889E-05</v>
+        <v>1.8175443381648888E-5</v>
       </c>
       <c r="E54">
         <v>9.159339953157541E-17</v>
       </c>
       <c r="F54">
-        <v>5.828670879282072E-17</v>
+        <v>5.8286708792820721E-17</v>
       </c>
       <c r="G54">
-        <v>1.665334536937735E-16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B55">
-        <v>1.033838974255907E-05</v>
+        <v>1.0338389742559071E-5</v>
       </c>
       <c r="C55">
-        <v>0.003681057148803091</v>
+        <v>3.6810571488030911E-3</v>
       </c>
       <c r="D55">
-        <v>1.788779227507309E-06</v>
+        <v>1.7887792275073091E-6</v>
       </c>
       <c r="E55">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="F55">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G55">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B56">
-        <v>1.104223730186149E-06</v>
+        <v>1.1042237301861491E-6</v>
       </c>
       <c r="C56">
-        <v>0.0002612664037241252</v>
+        <v>2.6126640372412522E-4</v>
       </c>
       <c r="D56">
-        <v>1.994231087786014E-07</v>
+        <v>1.9942310877860139E-7</v>
       </c>
       <c r="E56">
-        <v>9.575673587391976E-17</v>
+        <v>9.5756735873919757E-17</v>
       </c>
       <c r="F56">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G56">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B57">
-        <v>6.246906520068762E-07</v>
+        <v>6.2469065200687621E-7</v>
       </c>
       <c r="C57">
-        <v>0.0001347951999883357</v>
+        <v>1.3479519998833571E-4</v>
       </c>
       <c r="D57">
-        <v>1.766847634990243E-07</v>
+        <v>1.7668476349902431E-7</v>
       </c>
       <c r="E57">
-        <v>6.036837696399288E-17</v>
+        <v>6.0368376963992882E-17</v>
       </c>
       <c r="F57">
-        <v>7.494005416219807E-17</v>
+        <v>7.4940054162198071E-17</v>
       </c>
       <c r="G57">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B58">
-        <v>2.712536287585721E-07</v>
+        <v>2.7125362875857208E-7</v>
       </c>
       <c r="C58">
-        <v>0.0001399759247681765</v>
+        <v>1.3997592476817651E-4</v>
       </c>
       <c r="D58">
-        <v>1.446636624324871E-07</v>
+        <v>1.446636624324871E-7</v>
       </c>
       <c r="E58">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="F58">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G58">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B59">
-        <v>8.79296635503124E-15</v>
+        <v>8.7929663550312401E-15</v>
       </c>
       <c r="C59">
-        <v>1.465494392505207E-14</v>
+        <v>1.4654943925052069E-14</v>
       </c>
       <c r="D59">
         <v>2.914335439641036E-17</v>
@@ -2917,13 +2974,13 @@
         <v>1.415534356397074E-16</v>
       </c>
       <c r="F59">
-        <v>7.077671781985372E-17</v>
+        <v>7.0776717819853725E-17</v>
       </c>
       <c r="G59">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2931,45 +2988,45 @@
         <v>1.332267629550188E-15</v>
       </c>
       <c r="C60">
-        <v>2.1316282072803E-15</v>
+        <v>2.1316282072803001E-15</v>
       </c>
       <c r="D60">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="E60">
-        <v>4.57966997657877E-17</v>
+        <v>4.5796699765787699E-17</v>
       </c>
       <c r="F60">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="G60">
-        <v>2.331468351712829E-16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>2.3314683517128288E-16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B61">
-        <v>5.329070518200751E-16</v>
+        <v>5.3290705182007512E-16</v>
       </c>
       <c r="C61">
-        <v>1.572075802869222E-14</v>
+        <v>1.5720758028692219E-14</v>
       </c>
       <c r="D61">
-        <v>3.95516952522712E-17</v>
+        <v>3.9551695252271203E-17</v>
       </c>
       <c r="E61">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="F61">
-        <v>1.249000902703301E-16</v>
+        <v>1.2490009027033011E-16</v>
       </c>
       <c r="G61">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>98</v>
       </c>
@@ -2977,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.02625355754367309</v>
+        <v>2.6253557543673089E-2</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2992,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -3015,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>99</v>
       </c>
@@ -3038,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>100</v>
       </c>
@@ -3061,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>101</v>
       </c>
@@ -3084,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>102</v>
       </c>
@@ -3107,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>103</v>
       </c>
@@ -3130,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -3141,7 +3198,7 @@
         <v>58.21768162410649</v>
       </c>
       <c r="D69">
-        <v>7.910339050454241E-17</v>
+        <v>7.9103390504542406E-17</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3153,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>104</v>
       </c>
@@ -3176,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>105</v>
       </c>
@@ -3199,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>106</v>
       </c>
@@ -3207,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0.04796511294306018</v>
+        <v>4.7965112943060183E-2</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3222,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
@@ -3245,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>108</v>
       </c>
@@ -3268,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>109</v>
       </c>
@@ -3291,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -3299,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>23.81678283771175</v>
+        <v>23.816782837711749</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3314,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>110</v>
       </c>
@@ -3337,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>111</v>
       </c>
@@ -3360,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
@@ -3368,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0.1382195617280725</v>
+        <v>0.13821956172807251</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3383,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>113</v>
       </c>
@@ -3391,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0.001876203010074651</v>
+        <v>1.8762030100746511E-3</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3406,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>114</v>
       </c>
@@ -3414,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0.02166489887599034</v>
+        <v>2.1664898875990341E-2</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3429,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>115</v>
       </c>
@@ -3452,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>116</v>
       </c>
@@ -3475,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>117</v>
       </c>
@@ -3498,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>118</v>
       </c>
@@ -3506,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1.402890761573974</v>
+        <v>1.4028907615739741</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3521,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>119</v>
       </c>
@@ -3529,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0.08552463431271776</v>
+        <v>8.5524634312717757E-2</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3544,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>120</v>
       </c>
@@ -3552,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>0.4195170201759335</v>
+        <v>0.41951702017593351</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3567,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>121</v>
       </c>
@@ -3590,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>122</v>
       </c>
@@ -3613,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>123</v>
       </c>
@@ -3621,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0.01546099846733338</v>
+        <v>1.546099846733338E-2</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3636,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>50</v>
       </c>
@@ -3644,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>6.403439837085338</v>
+        <v>6.4034398370853376</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3659,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>124</v>
       </c>
@@ -3667,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0.1335542658224805</v>
+        <v>0.13355426582248051</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3682,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
@@ -3705,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -3728,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
@@ -3736,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0.1709250963371177</v>
+        <v>0.17092509633711769</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3751,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>128</v>
       </c>
@@ -3759,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.002925332548142467</v>
+        <v>2.9253325481424669E-3</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3774,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>129</v>
       </c>
@@ -3782,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.6455411753155008</v>
+        <v>0.64554117531550081</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3797,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>130</v>
       </c>
@@ -3805,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.2384568790939905</v>
+        <v>0.23845687909399049</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3820,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -3828,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.02198100421094944</v>
+        <v>2.198100421094944E-2</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3843,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>132</v>
       </c>
@@ -3854,19 +3911,19 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>2.081668171172168E-18</v>
+        <v>2.0816681711721681E-18</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G100">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
@@ -3889,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>134</v>
       </c>
@@ -3912,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -3920,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>3.289515433875059</v>
+        <v>3.2895154338750592</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3935,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>136</v>
       </c>
@@ -3958,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>137</v>
       </c>
@@ -3966,22 +4023,22 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>3.442085511159216</v>
+        <v>3.4420855111592159</v>
       </c>
       <c r="D105">
-        <v>0.01057912165259038</v>
+        <v>1.057912165259038E-2</v>
       </c>
       <c r="E105">
-        <v>2.081668171172169E-17</v>
+        <v>2.0816681711721691E-17</v>
       </c>
       <c r="F105">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G105">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>138</v>
       </c>
@@ -3989,22 +4046,22 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0.03046467307347136</v>
+        <v>3.0464673073471359E-2</v>
       </c>
       <c r="D106">
-        <v>9.361779866583902E-06</v>
+        <v>9.3617798665839025E-6</v>
       </c>
       <c r="E106">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="F106">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G106">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>139</v>
       </c>
@@ -4012,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>7.585942873866713E-09</v>
+        <v>7.5859428738667134E-9</v>
       </c>
       <c r="D107">
-        <v>5.625001952766495E-08</v>
+        <v>5.6250019527664952E-8</v>
       </c>
       <c r="E107">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="F107">
         <v>5.412337245047638E-17</v>
@@ -4027,7 +4084,7 @@
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>140</v>
       </c>
@@ -4038,19 +4095,19 @@
         <v>1.894966894453298</v>
       </c>
       <c r="D108">
-        <v>0.01328378377533732</v>
+        <v>1.3283783775337321E-2</v>
       </c>
       <c r="E108">
         <v>1.249000902703301E-17</v>
       </c>
       <c r="F108">
-        <v>5.828670879282072E-17</v>
+        <v>5.8286708792820721E-17</v>
       </c>
       <c r="G108">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -4058,22 +4115,22 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0.8776083666361185</v>
+        <v>0.87760836663611852</v>
       </c>
       <c r="D109">
-        <v>0.00516944281164902</v>
+        <v>5.1694428116490204E-3</v>
       </c>
       <c r="E109">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="F109">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G109">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>27</v>
       </c>
@@ -4081,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>5.372182135240022</v>
+        <v>5.3721821352400223</v>
       </c>
       <c r="D110">
-        <v>0.06727224161890158</v>
+        <v>6.7272241618901579E-2</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4096,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>142</v>
       </c>
@@ -4104,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>0.008996528213913191</v>
+        <v>8.9965282139131911E-3</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4119,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
@@ -4127,22 +4184,22 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0.2996838901252412</v>
+        <v>0.29968389012524121</v>
       </c>
       <c r="D112">
-        <v>0.0001018149873509698</v>
+        <v>1.0181498735096979E-4</v>
       </c>
       <c r="E112">
-        <v>4.57966997657877E-17</v>
+        <v>4.5796699765787699E-17</v>
       </c>
       <c r="F112">
         <v>2.498001805406602E-17</v>
       </c>
       <c r="G112">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>144</v>
       </c>
@@ -4150,22 +4207,22 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0.1465190266501551</v>
+        <v>0.14651902665015509</v>
       </c>
       <c r="D113">
-        <v>9.625077922434944E-05</v>
+        <v>9.6250779224349442E-5</v>
       </c>
       <c r="E113">
         <v>1.249000902703301E-17</v>
       </c>
       <c r="F113">
-        <v>7.077671781985372E-17</v>
+        <v>7.0776717819853725E-17</v>
       </c>
       <c r="G113">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>145</v>
       </c>
@@ -4188,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>146</v>
       </c>
@@ -4196,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1.597135684718865E-05</v>
+        <v>1.5971356847188649E-5</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -4211,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>147</v>
       </c>
@@ -4219,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0.03706230046044219</v>
+        <v>3.7062300460442191E-2</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4234,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>148</v>
       </c>
@@ -4242,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0.0009327356212792681</v>
+        <v>9.3273562127926812E-4</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -4257,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>149</v>
       </c>
@@ -4265,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>0.001033041494541109</v>
+        <v>1.033041494541109E-3</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4280,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>150</v>
       </c>
@@ -4303,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>151</v>
       </c>
@@ -4326,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>152</v>
       </c>
@@ -4334,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>0.003618760487988304</v>
+        <v>3.6187604879883038E-3</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -4349,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>153</v>
       </c>
@@ -4372,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>154</v>
       </c>
@@ -4380,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0.002539381661884477</v>
+        <v>2.5393816618844772E-3</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4395,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>155</v>
       </c>
@@ -4403,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>0.5193411662655724</v>
+        <v>0.51934116626557236</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -4418,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>156</v>
       </c>
@@ -4426,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>0.01481206327586566</v>
+        <v>1.481206327586566E-2</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -4441,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>157</v>
       </c>
@@ -4449,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0.006066445936899445</v>
+        <v>6.0664459368994453E-3</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -4464,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>158</v>
       </c>
@@ -4472,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>0.2029287861948754</v>
+        <v>0.20292878619487539</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -4487,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>159</v>
       </c>
@@ -4510,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>51</v>
       </c>
@@ -4518,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>3.47901664906127</v>
+        <v>3.4790166490612702</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -4533,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>29</v>
       </c>
@@ -4541,22 +4598,22 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0.4052632781478673</v>
+        <v>0.40526327814786728</v>
       </c>
       <c r="D130">
-        <v>0.0233294751521466</v>
+        <v>2.33294751521466E-2</v>
       </c>
       <c r="E130">
-        <v>6.245004513516506E-18</v>
+        <v>6.2450045135165057E-18</v>
       </c>
       <c r="F130">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>160</v>
       </c>
@@ -4564,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>0.5670058467228095</v>
+        <v>0.56700584672280951</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -4579,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>52</v>
       </c>
@@ -4602,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
@@ -4610,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>0.009136248993893804</v>
+        <v>9.1362489938938037E-3</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -4625,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>162</v>
       </c>
@@ -4648,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>163</v>
       </c>
@@ -4671,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>164</v>
       </c>
@@ -4679,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>1.82607815791517</v>
+        <v>1.8260781579151699</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -4694,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>165</v>
       </c>
@@ -4717,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>166</v>
       </c>
@@ -4725,19 +4782,19 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0.197915667921215</v>
+        <v>0.19791566792121501</v>
       </c>
       <c r="D138">
-        <v>0.01840845291762912</v>
+        <v>1.8408452917629121E-2</v>
       </c>
       <c r="E138">
-        <v>3.747002708109904E-17</v>
+        <v>3.7470027081099042E-17</v>
       </c>
       <c r="F138">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="G138">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
     </row>
   </sheetData>
@@ -4746,14 +4803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -4773,30 +4830,30 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>32.96731832621015</v>
+        <v>32.967318326210147</v>
       </c>
       <c r="C2">
-        <v>69.39362302024757</v>
+        <v>69.393623020247574</v>
       </c>
       <c r="D2">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="E2">
         <v>2.498001805406602E-17</v>
       </c>
       <c r="F2">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G2">
         <v>1.332267629550188E-16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4804,27 +4861,27 @@
         <v>6.650296879735798</v>
       </c>
       <c r="C3">
-        <v>14.72814473362683</v>
+        <v>14.728144733626831</v>
       </c>
       <c r="D3">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="E3">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="F3">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="G3">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>5.497265306218863</v>
+        <v>5.4972653062188632</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4842,15 +4899,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>4.753467962485315</v>
+        <v>4.7534679624853151</v>
       </c>
       <c r="C5">
-        <v>0.02643719104805484</v>
+        <v>2.643719104805484E-2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4865,21 +4922,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>4.396051923592999</v>
+        <v>4.3960519235929993</v>
       </c>
       <c r="C6">
         <v>1.398832518525851</v>
       </c>
       <c r="D6">
-        <v>0.004592201289379547</v>
+        <v>4.592201289379547E-3</v>
       </c>
       <c r="E6">
-        <v>4.57966997657877E-17</v>
+        <v>4.5796699765787699E-17</v>
       </c>
       <c r="F6">
         <v>1.332267629550188E-16</v>
@@ -4888,38 +4945,38 @@
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B7">
-        <v>3.06827922510804</v>
+        <v>3.0682792251080402</v>
       </c>
       <c r="C7">
-        <v>9.693485892105715</v>
+        <v>9.6934858921057145</v>
       </c>
       <c r="D7">
-        <v>7.077671781985372E-17</v>
+        <v>7.0776717819853725E-17</v>
       </c>
       <c r="E7">
-        <v>3.122502256758253E-17</v>
+        <v>3.1225022567582528E-17</v>
       </c>
       <c r="F7">
-        <v>2.331468351712829E-16</v>
+        <v>2.3314683517128288E-16</v>
       </c>
       <c r="G7">
-        <v>2.664535259100376E-16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>2.6645352591003761E-16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>2.815932870791755</v>
+        <v>2.8159328707917548</v>
       </c>
       <c r="C8">
-        <v>35.10071120854199</v>
+        <v>35.100711208541988</v>
       </c>
       <c r="D8">
         <v>1.332267629550188E-16</v>
@@ -4934,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -4942,7 +4999,7 @@
         <v>1.627769438274326</v>
       </c>
       <c r="C9">
-        <v>12.52091403327844</v>
+        <v>12.520914033278441</v>
       </c>
       <c r="D9">
         <v>0.2184622004235722</v>
@@ -4957,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -4980,15 +5037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B11">
-        <v>1.171455046548118</v>
+        <v>1.1714550465481179</v>
       </c>
       <c r="C11">
-        <v>0.009786884070674162</v>
+        <v>9.7868840706741619E-3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5003,38 +5060,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1.149483453559604</v>
+        <v>1.1494834535596039</v>
       </c>
       <c r="C12">
-        <v>22.87877526500809</v>
+        <v>22.878775265008091</v>
       </c>
       <c r="D12">
-        <v>0.2052364538187443</v>
+        <v>0.20523645381874431</v>
       </c>
       <c r="E12">
         <v>0.2012936293129125</v>
       </c>
       <c r="F12">
-        <v>1.831867990631508E-16</v>
+        <v>1.8318679906315079E-16</v>
       </c>
       <c r="G12">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B13">
-        <v>0.7301523896274498</v>
+        <v>0.73015238962744977</v>
       </c>
       <c r="C13">
-        <v>0.006148595938991264</v>
+        <v>6.1485959389912638E-3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5049,18 +5106,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B14">
-        <v>0.6081825449852338</v>
+        <v>0.60818254498523383</v>
       </c>
       <c r="C14">
-        <v>1.08592131449654</v>
+        <v>1.0859213144965401</v>
       </c>
       <c r="D14">
-        <v>0.08340432697636382</v>
+        <v>8.3404326976363824E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5072,84 +5129,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B15">
-        <v>0.6035325108181547</v>
+        <v>0.60353251081815473</v>
       </c>
       <c r="C15">
         <v>2.639362705656807</v>
       </c>
       <c r="D15">
-        <v>3.193380830440185E-05</v>
+        <v>3.1933808304401853E-5</v>
       </c>
       <c r="E15">
-        <v>7.910339050454241E-17</v>
+        <v>7.9103390504542406E-17</v>
       </c>
       <c r="F15">
         <v>2.831068712794149E-16</v>
       </c>
       <c r="G15">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.5934336071287851</v>
+        <v>0.59343360712878512</v>
       </c>
       <c r="C16">
-        <v>6.867510721046672</v>
+        <v>6.8675107210466724</v>
       </c>
       <c r="D16">
         <v>0.1139314474831573</v>
       </c>
       <c r="E16">
-        <v>8.743006318923108E-17</v>
+        <v>8.7430063189231075E-17</v>
       </c>
       <c r="F16">
         <v>1.332267629550188E-16</v>
       </c>
       <c r="G16">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B17">
-        <v>0.5319438882841525</v>
+        <v>0.53194388828415251</v>
       </c>
       <c r="C17">
-        <v>4.46411873661434</v>
+        <v>4.4641187366143402</v>
       </c>
       <c r="D17">
-        <v>1.046622568491584E-05</v>
+        <v>1.046622568491584E-5</v>
       </c>
       <c r="E17">
         <v>1.040834085586084E-16</v>
       </c>
       <c r="F17">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G17">
-        <v>1.665334536937735E-16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B18">
-        <v>0.4819131088259955</v>
+        <v>0.48191310882599547</v>
       </c>
       <c r="C18">
-        <v>0.01525613301503768</v>
+        <v>1.5256133015037679E-2</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5164,38 +5221,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B19">
-        <v>0.3961142863167132</v>
+        <v>0.39611428631671319</v>
       </c>
       <c r="C19">
-        <v>0.8886768385803803</v>
+        <v>0.88867683858038027</v>
       </c>
       <c r="D19">
-        <v>0.01166549090498624</v>
+        <v>1.1665490904986239E-2</v>
       </c>
       <c r="E19">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="F19">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="G19">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B20">
-        <v>0.3773220782230068</v>
+        <v>0.37732207822300678</v>
       </c>
       <c r="C20">
-        <v>0.0009336222883625567</v>
+        <v>9.3362228836255665E-4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5210,18 +5267,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B21">
-        <v>0.2728206416568771</v>
+        <v>0.27282064165687708</v>
       </c>
       <c r="C21">
-        <v>0.4670210769673668</v>
+        <v>0.46702107696736678</v>
       </c>
       <c r="D21">
-        <v>0.03375216969367162</v>
+        <v>3.3752169693671619E-2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5233,30 +5290,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.264069578158195</v>
+        <v>0.26406957815819498</v>
       </c>
       <c r="C22">
         <v>3.327919318114879</v>
       </c>
       <c r="D22">
-        <v>7.878570838318332E-06</v>
+        <v>7.8785708383183325E-6</v>
       </c>
       <c r="E22">
         <v>0.1999770036554149</v>
       </c>
       <c r="F22">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G22">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -5267,24 +5324,24 @@
         <v>1.043185558287643</v>
       </c>
       <c r="D23">
-        <v>2.890664005161803E-07</v>
+        <v>2.8906640051618029E-7</v>
       </c>
       <c r="E23">
-        <v>7.494005416219807E-17</v>
+        <v>7.4940054162198071E-17</v>
       </c>
       <c r="F23">
-        <v>0.3497435647777778</v>
+        <v>0.34974356477777779</v>
       </c>
       <c r="G23">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B24">
-        <v>0.2430913622292173</v>
+        <v>0.24309136222921729</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5302,15 +5359,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B25">
-        <v>0.1926407991770402</v>
+        <v>0.19264079917704019</v>
       </c>
       <c r="C25">
-        <v>0.003716655875939523</v>
+        <v>3.7166558759395229E-3</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5325,15 +5382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B26">
-        <v>0.1759087396337846</v>
+        <v>0.17590873963378459</v>
       </c>
       <c r="C26">
-        <v>0.004757875513013943</v>
+        <v>4.7578755130139429E-3</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5348,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -5356,7 +5413,7 @@
         <v>0.1677773019689579</v>
       </c>
       <c r="C27">
-        <v>0.005515078305938559</v>
+        <v>5.5150783059385589E-3</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5371,35 +5428,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1612023378911329</v>
+        <v>0.16120233789113289</v>
       </c>
       <c r="C28">
         <v>1.266117958568594</v>
       </c>
       <c r="D28">
-        <v>1.694393710163777E-06</v>
+        <v>1.6943937101637771E-6</v>
       </c>
       <c r="E28">
-        <v>0.09862585158355665</v>
+        <v>9.8625851583556648E-2</v>
       </c>
       <c r="F28">
-        <v>1.831867990631508E-16</v>
+        <v>1.8318679906315079E-16</v>
       </c>
       <c r="G28">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B29">
-        <v>0.1566324053090979</v>
+        <v>0.15663240530909789</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5417,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -5425,22 +5482,22 @@
         <v>0.1433427575696086</v>
       </c>
       <c r="C30">
-        <v>0.3990634512976977</v>
+        <v>0.39906345129769771</v>
       </c>
       <c r="D30">
-        <v>0.01335435734888874</v>
+        <v>1.335435734888874E-2</v>
       </c>
       <c r="E30">
-        <v>0.008638343356188589</v>
+        <v>8.6383433561885888E-3</v>
       </c>
       <c r="F30">
-        <v>0.02385384577777779</v>
+        <v>2.3853845777777789E-2</v>
       </c>
       <c r="G30">
-        <v>0.02442309572222229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2.4423095722222291E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>172</v>
       </c>
@@ -5448,7 +5505,7 @@
         <v>0.1220491578976281</v>
       </c>
       <c r="C31">
-        <v>0.06164018875999737</v>
+        <v>6.1640188759997369E-2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5463,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -5471,22 +5528,22 @@
         <v>0.1150176146893916</v>
       </c>
       <c r="C32">
-        <v>0.461285629239384</v>
+        <v>0.46128562923938399</v>
       </c>
       <c r="D32">
-        <v>6.255694982601479E-06</v>
+        <v>6.2556949826014788E-6</v>
       </c>
       <c r="E32">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="F32">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="G32">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -5494,22 +5551,22 @@
         <v>0.1076792693594551</v>
       </c>
       <c r="C33">
-        <v>0.9892781596235405</v>
+        <v>0.98927815962354049</v>
       </c>
       <c r="D33">
-        <v>2.29628396094278E-05</v>
+        <v>2.2962839609427801E-5</v>
       </c>
       <c r="E33">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="F33">
         <v>2.164934898019055E-16</v>
       </c>
       <c r="G33">
-        <v>1.998401444325282E-16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1.9984014443252821E-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -5520,7 +5577,7 @@
         <v>1.423424641744597</v>
       </c>
       <c r="D34">
-        <v>4.810095420600125E-05</v>
+        <v>4.8100954206001252E-5</v>
       </c>
       <c r="E34">
         <v>1.415534356397074E-16</v>
@@ -5529,10 +5586,10 @@
         <v>1.332267629550188E-16</v>
       </c>
       <c r="G34">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -5540,7 +5597,7 @@
         <v>0.1037614108507748</v>
       </c>
       <c r="C35">
-        <v>0.0139391438941292</v>
+        <v>1.3939143894129201E-2</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5555,61 +5612,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08855930578619983</v>
+        <v>8.8559305786199832E-2</v>
       </c>
       <c r="C36">
-        <v>0.4288848226918421</v>
+        <v>0.42888482269184208</v>
       </c>
       <c r="D36">
-        <v>3.248867748208984E-05</v>
+        <v>3.2488677482089842E-5</v>
       </c>
       <c r="E36">
-        <v>9.575673587391976E-17</v>
+        <v>9.5756735873919757E-17</v>
       </c>
       <c r="F36">
-        <v>1.665334536937735E-16</v>
+        <v>1.6653345369377351E-16</v>
       </c>
       <c r="G36">
-        <v>3.663735981263016E-16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>3.6637359812630159E-16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37">
-        <v>0.06471119080887146</v>
+        <v>6.4711190808871458E-2</v>
       </c>
       <c r="C37">
-        <v>0.276586994494266</v>
+        <v>0.27658699449426599</v>
       </c>
       <c r="D37">
-        <v>1.450588581514284E-05</v>
+        <v>1.450588581514284E-5</v>
       </c>
       <c r="E37">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="F37">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G37">
-        <v>3.663735981263016E-16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>3.6637359812630159E-16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B38">
-        <v>0.06413278321809326</v>
+        <v>6.4132783218093264E-2</v>
       </c>
       <c r="C38">
-        <v>0.05637971163134736</v>
+        <v>5.6379711631347362E-2</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5624,61 +5681,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B39">
-        <v>0.04877023622163527</v>
+        <v>4.8770236221635267E-2</v>
       </c>
       <c r="C39">
-        <v>0.04230433462997922</v>
+        <v>4.2304334629979221E-2</v>
       </c>
       <c r="D39">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="E39">
-        <v>1.124100812432971E-16</v>
+        <v>1.1241008124329709E-16</v>
       </c>
       <c r="F39">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G39">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.04796710816433012</v>
+        <v>4.796710816433012E-2</v>
       </c>
       <c r="C40">
         <v>0.2494976224875036</v>
       </c>
       <c r="D40">
-        <v>5.563830454941022E-07</v>
+        <v>5.5638304549410216E-7</v>
       </c>
       <c r="E40">
-        <v>7.077671781985372E-17</v>
+        <v>7.0776717819853725E-17</v>
       </c>
       <c r="F40">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G40">
-        <v>0.1871537100000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.18715371000000011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41">
-        <v>0.04647279428297695</v>
+        <v>4.6472794282976952E-2</v>
       </c>
       <c r="C41">
-        <v>0.002971596605436133</v>
+        <v>2.971596605436133E-3</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5693,15 +5750,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B42">
-        <v>0.04402829903535448</v>
+        <v>4.4028299035354483E-2</v>
       </c>
       <c r="C42">
-        <v>0.03860665044708931</v>
+        <v>3.8606650447089309E-2</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5716,15 +5773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B43">
-        <v>0.03829921499256482</v>
+        <v>3.829921499256482E-2</v>
       </c>
       <c r="C43">
-        <v>0.03779191114232842</v>
+        <v>3.7791911142328417E-2</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5739,176 +5796,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.03545963784787807</v>
+        <v>3.5459637847878069E-2</v>
       </c>
       <c r="C44">
-        <v>0.2916832485107413</v>
+        <v>0.29168324851074129</v>
       </c>
       <c r="D44">
-        <v>1.033817163537259E-05</v>
+        <v>1.033817163537259E-5</v>
       </c>
       <c r="E44">
         <v>1.415534356397074E-16</v>
       </c>
       <c r="F44">
-        <v>3.164135620181696E-16</v>
+        <v>3.1641356201816962E-16</v>
       </c>
       <c r="G44">
-        <v>2.331468351712829E-16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>2.3314683517128288E-16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>0.03082668573316989</v>
+        <v>3.0826685733169889E-2</v>
       </c>
       <c r="C45">
-        <v>0.02734638883257876</v>
+        <v>2.7346388832578759E-2</v>
       </c>
       <c r="D45">
-        <v>7.289121824248512E-06</v>
+        <v>7.2891218242485116E-6</v>
       </c>
       <c r="E45">
         <v>1.332267629550188E-16</v>
       </c>
       <c r="F45">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="G45">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B46">
-        <v>0.03076648522852334</v>
+        <v>3.0766485228523339E-2</v>
       </c>
       <c r="C46">
-        <v>0.02653766612220352</v>
+        <v>2.653766612220352E-2</v>
       </c>
       <c r="D46">
         <v>1.706967900361178E-16</v>
       </c>
       <c r="E46">
-        <v>4.57966997657877E-17</v>
+        <v>4.5796699765787699E-17</v>
       </c>
       <c r="F46">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G46">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B47">
-        <v>0.0258507011612642</v>
+        <v>2.58507011612642E-2</v>
       </c>
       <c r="C47">
         <v>0.1243252866150652</v>
       </c>
       <c r="D47">
-        <v>3.676581179085092E-06</v>
+        <v>3.6765811790850922E-6</v>
       </c>
       <c r="E47">
-        <v>0.01295302834844984</v>
+        <v>1.295302834844984E-2</v>
       </c>
       <c r="F47">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G47">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B48">
-        <v>0.02253864906438174</v>
+        <v>2.253864906438174E-2</v>
       </c>
       <c r="C48">
-        <v>0.2767965068815325</v>
+        <v>0.27679650688153251</v>
       </c>
       <c r="D48">
-        <v>7.463176170217911E-06</v>
+        <v>7.4631761702179108E-6</v>
       </c>
       <c r="E48">
-        <v>0.009505129522148117</v>
+        <v>9.5051295221481175E-3</v>
       </c>
       <c r="F48">
-        <v>0.02999793477777764</v>
+        <v>2.9997934777777641E-2</v>
       </c>
       <c r="G48">
-        <v>0.03394728191666663</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>3.3947281916666627E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B49">
-        <v>0.02209705992446803</v>
+        <v>2.2097059924468029E-2</v>
       </c>
       <c r="C49">
-        <v>0.06554134523400883</v>
+        <v>6.5541345234008827E-2</v>
       </c>
       <c r="D49">
-        <v>2.895513432354946E-08</v>
+        <v>2.895513432354946E-8</v>
       </c>
       <c r="E49">
-        <v>0.002738414051234679</v>
+        <v>2.738414051234679E-3</v>
       </c>
       <c r="F49">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G49">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B50">
-        <v>0.02188450035382259</v>
+        <v>2.188450035382259E-2</v>
       </c>
       <c r="C50">
-        <v>0.01873958403941796</v>
+        <v>1.8739584039417959E-2</v>
       </c>
       <c r="D50">
-        <v>9.069589176916582E-05</v>
+        <v>9.069589176916582E-5</v>
       </c>
       <c r="E50">
-        <v>8.743006318923108E-17</v>
+        <v>8.7430063189231075E-17</v>
       </c>
       <c r="F50">
-        <v>1.998401444325282E-16</v>
+        <v>1.9984014443252821E-16</v>
       </c>
       <c r="G50">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B51">
-        <v>0.01812342527853091</v>
+        <v>1.8123425278530909E-2</v>
       </c>
       <c r="C51">
-        <v>0.003086673616002145</v>
+        <v>3.086673616002145E-3</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5923,12 +5980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.0169775923714093</v>
+        <v>1.6977592371409299E-2</v>
       </c>
       <c r="C52">
         <v>0.2501596989693432</v>
@@ -5946,38 +6003,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B53">
-        <v>0.01653489660654841</v>
+        <v>1.6534896606548409E-2</v>
       </c>
       <c r="C53">
-        <v>0.4276273648881755</v>
+        <v>0.42762736488817549</v>
       </c>
       <c r="D53">
-        <v>3.927130728401118E-07</v>
+        <v>3.9271307284011179E-7</v>
       </c>
       <c r="E53">
-        <v>0.01784132880570071</v>
+        <v>1.7841328805700711E-2</v>
       </c>
       <c r="F53">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G53">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B54">
-        <v>0.01641797748212568</v>
+        <v>1.641797748212568E-2</v>
       </c>
       <c r="C54">
-        <v>0.01525613301503341</v>
+        <v>1.525613301503341E-2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5992,61 +6049,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B55">
-        <v>0.01502972507910822</v>
+        <v>1.5029725079108221E-2</v>
       </c>
       <c r="C55">
-        <v>0.09764672078130032</v>
+        <v>9.7646720781300322E-2</v>
       </c>
       <c r="D55">
-        <v>0.00130607681022098</v>
+        <v>1.3060768102209799E-3</v>
       </c>
       <c r="E55">
-        <v>0.003850725013815671</v>
+        <v>3.850725013815671E-3</v>
       </c>
       <c r="F55">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="G55">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B56">
-        <v>0.01420121304938319</v>
+        <v>1.4201213049383189E-2</v>
       </c>
       <c r="C56">
-        <v>0.01386974565169439</v>
+        <v>1.386974565169439E-2</v>
       </c>
       <c r="D56">
-        <v>0.0004027181530451673</v>
+        <v>4.0271815304516729E-4</v>
       </c>
       <c r="E56">
-        <v>8.743006318923108E-17</v>
+        <v>8.7430063189231075E-17</v>
       </c>
       <c r="F56">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G56">
-        <v>1.665334536937735E-16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B57">
-        <v>0.01344232370970404</v>
+        <v>1.3442323709704039E-2</v>
       </c>
       <c r="C57">
-        <v>0.8782420159746298</v>
+        <v>0.87824201597462981</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -6061,15 +6118,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B58">
-        <v>0.01212631058171105</v>
+        <v>1.212631058171105E-2</v>
       </c>
       <c r="C58">
-        <v>0.04888384536077215</v>
+        <v>4.888384536077215E-2</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6084,21 +6141,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B59">
-        <v>0.01207283094834235</v>
+        <v>1.2072830948342351E-2</v>
       </c>
       <c r="C59">
-        <v>0.02987622453902479</v>
+        <v>2.987622453902479E-2</v>
       </c>
       <c r="D59">
-        <v>0.001583885325206937</v>
+        <v>1.5838853252069371E-3</v>
       </c>
       <c r="E59">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -6107,15 +6164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B60">
-        <v>0.01089670209562907</v>
+        <v>1.089670209562907E-2</v>
       </c>
       <c r="C60">
-        <v>0.2092979731031182</v>
+        <v>0.20929797310311821</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6130,15 +6187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B61">
-        <v>0.01087949092578379</v>
+        <v>1.087949092578379E-2</v>
       </c>
       <c r="C61">
-        <v>0.607490799649933</v>
+        <v>0.60749079964993302</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6153,18 +6210,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B62">
-        <v>0.01075660947811044</v>
+        <v>1.075660947811044E-2</v>
       </c>
       <c r="C62">
-        <v>0.01596756402827237</v>
+        <v>1.5967564028272371E-2</v>
       </c>
       <c r="D62">
-        <v>2.222930663126066E-07</v>
+        <v>2.2229306631260661E-7</v>
       </c>
       <c r="E62">
         <v>2.498001805406602E-17</v>
@@ -6173,44 +6230,44 @@
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G62">
-        <v>0.005257778055555618</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>5.2577780555556177E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B63">
-        <v>0.01011183175530619</v>
+        <v>1.0111831755306191E-2</v>
       </c>
       <c r="C63">
-        <v>0.009147476811996125</v>
+        <v>9.1474768119961247E-3</v>
       </c>
       <c r="D63">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="E63">
-        <v>7.077671781985372E-17</v>
+        <v>7.0776717819853725E-17</v>
       </c>
       <c r="F63">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G63">
-        <v>1.998401444325282E-16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>1.9984014443252821E-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B64">
-        <v>0.009052284937670107</v>
+        <v>9.0522849376701072E-3</v>
       </c>
       <c r="C64">
-        <v>0.0002038686560730696</v>
+        <v>2.038686560730696E-4</v>
       </c>
       <c r="D64">
-        <v>3.761836017839998E-05</v>
+        <v>3.7618360178399982E-5</v>
       </c>
       <c r="E64">
         <v>6.661338147750939E-17</v>
@@ -6219,41 +6276,41 @@
         <v>1.332267629550188E-16</v>
       </c>
       <c r="G64">
-        <v>1.831867990631508E-16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>1.8318679906315079E-16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B65">
-        <v>0.008658809162894455</v>
+        <v>8.6588091628944548E-3</v>
       </c>
       <c r="C65">
-        <v>0.02116477923525348</v>
+        <v>2.1164779235253482E-2</v>
       </c>
       <c r="D65">
-        <v>0.00269855109455311</v>
+        <v>2.6985510945531101E-3</v>
       </c>
       <c r="E65">
-        <v>1.124100812432971E-16</v>
+        <v>1.1241008124329709E-16</v>
       </c>
       <c r="F65">
-        <v>1.998401444325282E-16</v>
+        <v>1.9984014443252821E-16</v>
       </c>
       <c r="G65">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B66">
-        <v>0.008287305173110392</v>
+        <v>8.2873051731103924E-3</v>
       </c>
       <c r="C66">
-        <v>0.007083095207586004</v>
+        <v>7.0830952075860041E-3</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -6268,15 +6325,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B67">
-        <v>0.008287305173110392</v>
+        <v>8.2873051731103924E-3</v>
       </c>
       <c r="C67">
-        <v>0.007083095207586004</v>
+        <v>7.0830952075860041E-3</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6291,15 +6348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B68">
-        <v>0.007291111283727702</v>
+        <v>7.2911112837277022E-3</v>
       </c>
       <c r="C68">
-        <v>0.7582914842723671</v>
+        <v>0.75829148427236714</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6314,44 +6371,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B69">
-        <v>0.007178157321072432</v>
+        <v>7.1781573210724318E-3</v>
       </c>
       <c r="C69">
-        <v>0.006563703903064599</v>
+        <v>6.5637039030645994E-3</v>
       </c>
       <c r="D69">
-        <v>2.295102753571699E-06</v>
+        <v>2.2951027535716989E-6</v>
       </c>
       <c r="E69">
         <v>1.082467449009528E-16</v>
       </c>
       <c r="F69">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G69">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.006680698991711376</v>
+        <v>6.6806989917113759E-3</v>
       </c>
       <c r="C70">
-        <v>0.06675086677471125</v>
+        <v>6.6750866774711246E-2</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.003139199065582815</v>
+        <v>3.1391990655828149E-3</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6360,38 +6417,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B71">
-        <v>0.006422544468436575</v>
+        <v>6.4225444684365748E-3</v>
       </c>
       <c r="C71">
-        <v>0.02552492335444079</v>
+        <v>2.5524923354440791E-2</v>
       </c>
       <c r="D71">
-        <v>2.66825839984608E-06</v>
+        <v>2.6682583998460799E-6</v>
       </c>
       <c r="E71">
-        <v>0.00184524102624911</v>
+        <v>1.8452410262491099E-3</v>
       </c>
       <c r="F71">
-        <v>1.665334536937735E-16</v>
+        <v>1.6653345369377351E-16</v>
       </c>
       <c r="G71">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B72">
-        <v>0.005640965650367846</v>
+        <v>5.6409656503678459E-3</v>
       </c>
       <c r="C72">
-        <v>0.00480969711422361</v>
+        <v>4.8096971142236097E-3</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6406,38 +6463,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B73">
-        <v>0.005578552630375233</v>
+        <v>5.5785526303752334E-3</v>
       </c>
       <c r="C73">
-        <v>0.01591515634213412</v>
+        <v>1.5915156342134119E-2</v>
       </c>
       <c r="D73">
-        <v>0.0001702921004238134</v>
+        <v>1.7029210042381339E-4</v>
       </c>
       <c r="E73">
-        <v>2.081668171172169E-17</v>
+        <v>2.0816681711721691E-17</v>
       </c>
       <c r="F73">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G73">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B74">
-        <v>0.005328481719760347</v>
+        <v>5.3284817197603472E-3</v>
       </c>
       <c r="C74">
-        <v>0.3318396056307387</v>
+        <v>0.33183960563073872</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -6452,15 +6509,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B75">
-        <v>0.005188163607679019</v>
+        <v>5.1881636076790191E-3</v>
       </c>
       <c r="C75">
-        <v>0.004430862795610402</v>
+        <v>4.430862795610402E-3</v>
       </c>
       <c r="D75">
         <v>6.661338147750939E-17</v>
@@ -6475,12 +6532,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B76">
-        <v>0.005188163607678886</v>
+        <v>5.1881636076788864E-3</v>
       </c>
       <c r="C76">
         <v>0.1722748696693937</v>
@@ -6498,15 +6555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B77">
-        <v>0.005116132587276567</v>
+        <v>5.1161325872765666E-3</v>
       </c>
       <c r="C77">
-        <v>9.55659498076859</v>
+        <v>9.5565949807685904</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -6521,61 +6578,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.004462886888135426</v>
+        <v>4.4628868881354264E-3</v>
       </c>
       <c r="C78">
-        <v>0.03792174364113517</v>
+        <v>3.7921743641135167E-2</v>
       </c>
       <c r="D78">
-        <v>2.026735968785331E-06</v>
+        <v>2.0267359687853309E-6</v>
       </c>
       <c r="E78">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="F78">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G78">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.003962559119861786</v>
+        <v>3.9625591198617863E-3</v>
       </c>
       <c r="C79">
-        <v>0.01061359848791188</v>
+        <v>1.0613598487911879E-2</v>
       </c>
       <c r="D79">
-        <v>0.002386646645108932</v>
+        <v>2.3866466451089321E-3</v>
       </c>
       <c r="E79">
-        <v>7.910339050454241E-17</v>
+        <v>7.9103390504542406E-17</v>
       </c>
       <c r="F79">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G79">
-        <v>1.998401444325282E-16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>1.9984014443252821E-16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B80">
-        <v>0.00386710527853138</v>
+        <v>3.8671052785313798E-3</v>
       </c>
       <c r="C80">
-        <v>0.008345065616000813</v>
+        <v>8.3450656160008133E-3</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -6590,15 +6647,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B81">
-        <v>0.00386710527853138</v>
+        <v>3.8671052785313798E-3</v>
       </c>
       <c r="C81">
-        <v>0.003086673616002145</v>
+        <v>3.086673616002145E-3</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -6613,61 +6670,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003850321751932223</v>
+        <v>3.8503217519322229E-3</v>
       </c>
       <c r="C82">
-        <v>0.02062167661456451</v>
+        <v>2.0621676614564509E-2</v>
       </c>
       <c r="D82">
-        <v>3.179859247873229E-07</v>
+        <v>3.1798592478732288E-7</v>
       </c>
       <c r="E82">
-        <v>6.245004513516506E-17</v>
+        <v>6.2450045135165055E-17</v>
       </c>
       <c r="F82">
-        <v>3.164135620181696E-16</v>
+        <v>3.1641356201816962E-16</v>
       </c>
       <c r="G82">
-        <v>1.831867990631508E-16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>1.8318679906315079E-16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.003684312590988664</v>
+        <v>3.6843125909886642E-3</v>
       </c>
       <c r="C83">
-        <v>0.002983268356876945</v>
+        <v>2.983268356876945E-3</v>
       </c>
       <c r="D83">
-        <v>1.527666098014024E-06</v>
+        <v>1.527666098014024E-6</v>
       </c>
       <c r="E83">
         <v>9.159339953157541E-17</v>
       </c>
       <c r="F83">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G83">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B84">
-        <v>0.003683689118240352</v>
+        <v>3.6836891182403519E-3</v>
       </c>
       <c r="C84">
-        <v>0.3498771413912763</v>
+        <v>0.34987714139127629</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -6682,15 +6739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B85">
-        <v>0.003683689118239819</v>
+        <v>3.683689118239819E-3</v>
       </c>
       <c r="C85">
-        <v>5.998646818735834</v>
+        <v>5.9986468187358337</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -6705,15 +6762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B86">
-        <v>0.003682264220878651</v>
+        <v>3.6822642208786511E-3</v>
       </c>
       <c r="C86">
-        <v>0.003187148690148689</v>
+        <v>3.187148690148689E-3</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6728,38 +6785,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B87">
-        <v>0.003279691212654479</v>
+        <v>3.279691212654479E-3</v>
       </c>
       <c r="C87">
-        <v>0.01093917536296374</v>
+        <v>1.093917536296374E-2</v>
       </c>
       <c r="D87">
-        <v>4.508407056680319E-07</v>
+        <v>4.5084070566803191E-7</v>
       </c>
       <c r="E87">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="F87">
-        <v>0.006163955388888925</v>
+        <v>6.163955388888925E-3</v>
       </c>
       <c r="G87">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B88">
-        <v>0.003245773514555949</v>
+        <v>3.245773514555949E-3</v>
       </c>
       <c r="C88">
-        <v>0.07529913377379067</v>
+        <v>7.5299133773790675E-2</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -6774,15 +6831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B89">
-        <v>0.002706495528930297</v>
+        <v>2.7064955289302969E-3</v>
       </c>
       <c r="C89">
-        <v>0.002192893394329687</v>
+        <v>2.192893394329687E-3</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -6797,12 +6854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B90">
-        <v>0.002096260413407513</v>
+        <v>2.096260413407513E-3</v>
       </c>
       <c r="C90">
         <v>1.302376982476366</v>
@@ -6820,15 +6877,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B91">
-        <v>0.001989990823254217</v>
+        <v>1.989990823254217E-3</v>
       </c>
       <c r="C91">
-        <v>0.1301196053840961</v>
+        <v>0.13011960538409609</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6843,38 +6900,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B92">
-        <v>0.001903572981354274</v>
+        <v>1.903572981354274E-3</v>
       </c>
       <c r="C92">
-        <v>0.01593421762962812</v>
+        <v>1.5934217629628121E-2</v>
       </c>
       <c r="D92">
-        <v>2.606319953907255E-06</v>
+        <v>2.6063199539072551E-6</v>
       </c>
       <c r="E92">
-        <v>0.0009517365609155407</v>
+        <v>9.517365609155407E-4</v>
       </c>
       <c r="F92">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G92">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B93">
-        <v>0.001544829959180705</v>
+        <v>1.5448299591807051E-3</v>
       </c>
       <c r="C93">
-        <v>0.003013212813929833</v>
+        <v>3.0132128139298332E-3</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -6889,15 +6946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B94">
-        <v>0.001043537649959525</v>
+        <v>1.043537649959525E-3</v>
       </c>
       <c r="C94">
-        <v>0.0009530727527035765</v>
+        <v>9.5307275270357645E-4</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -6912,15 +6969,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B95">
-        <v>0.001022240963225407</v>
+        <v>1.022240963225407E-3</v>
       </c>
       <c r="C95">
-        <v>0.0009336222883625567</v>
+        <v>9.3362228836255665E-4</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -6935,53 +6992,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B96">
-        <v>0.0007166080183826695</v>
+        <v>7.166080183826695E-4</v>
       </c>
       <c r="C96">
-        <v>0.003863120046725754</v>
+        <v>3.8631200467257542E-3</v>
       </c>
       <c r="D96">
-        <v>1.275672094291913E-07</v>
+        <v>1.2756720942919129E-7</v>
       </c>
       <c r="E96">
-        <v>0.0003846844444444969</v>
+        <v>3.8468444444449688E-4</v>
       </c>
       <c r="F96">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G96">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B97">
-        <v>0.0004747634140949808</v>
+        <v>4.7476341409498081E-4</v>
       </c>
       <c r="C97">
-        <v>0.01167616703650864</v>
+        <v>1.1676167036508639E-2</v>
       </c>
       <c r="D97">
-        <v>0.002895753853604954</v>
+        <v>2.8957538536049541E-3</v>
       </c>
       <c r="E97">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="F97">
-        <v>1.665334536937735E-16</v>
+        <v>1.6653345369377351E-16</v>
       </c>
       <c r="G97">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>126</v>
       </c>
@@ -6989,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>4.451859637862137</v>
+        <v>4.4518596378621371</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -7004,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>127</v>
       </c>
@@ -7012,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.4769972686578433</v>
+        <v>0.47699726865784331</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -7027,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>123</v>
       </c>
@@ -7035,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0.0377924778655613</v>
+        <v>3.7792477865561301E-2</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -7050,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
@@ -7058,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0.628288071464757</v>
+        <v>0.62828807146475696</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -7073,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>128</v>
       </c>
@@ -7081,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0.004307299205566028</v>
+        <v>4.3072992055660283E-3</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -7096,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
@@ -7119,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>26</v>
       </c>
@@ -7127,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>3.917510617127262</v>
+        <v>3.9175106171272618</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7142,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>130</v>
       </c>
@@ -7150,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0.4332915601416147</v>
+        <v>0.43329156014161468</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -7165,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>182</v>
       </c>
@@ -7173,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0.1885908975957757</v>
+        <v>0.18859089759577569</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -7188,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>120</v>
       </c>
@@ -7211,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7234,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>98</v>
       </c>
@@ -7257,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
@@ -7280,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>100</v>
       </c>
@@ -7303,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>101</v>
       </c>
@@ -7326,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>102</v>
       </c>
@@ -7349,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>111</v>
       </c>
@@ -7372,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>163</v>
       </c>
@@ -7380,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>0.4981251555555615</v>
+        <v>0.49812515555556153</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -7395,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>183</v>
       </c>
@@ -7418,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>184</v>
       </c>
@@ -7426,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0.0136752786666662</v>
+        <v>1.36752786666662E-2</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -7441,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>144</v>
       </c>
@@ -7452,19 +7509,19 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>1.416388239444677E-06</v>
+        <v>1.416388239444677E-6</v>
       </c>
       <c r="E118">
         <v>2.914335439641036E-17</v>
       </c>
       <c r="F118">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G118">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>143</v>
       </c>
@@ -7475,19 +7532,19 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>9.126132005432553E-07</v>
+        <v>9.1261320054325525E-7</v>
       </c>
       <c r="E119">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="F119">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G119">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>27</v>
       </c>
@@ -7495,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.02227053715502541</v>
+        <v>2.2270537155025409E-2</v>
       </c>
       <c r="D120">
-        <v>0.002544647619298768</v>
+        <v>2.5446476192987678E-3</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -7510,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
@@ -7521,19 +7578,19 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>4.139493759852675E-08</v>
+        <v>4.1394937598526753E-8</v>
       </c>
       <c r="E121">
         <v>2.914335439641036E-17</v>
       </c>
       <c r="F121">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="G121">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>138</v>
       </c>
@@ -7544,19 +7601,19 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>2.879768051272658E-07</v>
+        <v>2.8797680512726582E-7</v>
       </c>
       <c r="E122">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="F122">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="G122">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>185</v>
       </c>
@@ -7564,10 +7621,10 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0.003932653173558886</v>
+        <v>3.9326531735588864E-3</v>
       </c>
       <c r="D123">
-        <v>5.510186913280229E-05</v>
+        <v>5.5101869132802288E-5</v>
       </c>
       <c r="E123">
         <v>5.412337245047638E-17</v>
@@ -7576,10 +7633,10 @@
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G123">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>186</v>
       </c>
@@ -7587,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>0.003361351917401389</v>
+        <v>3.3613519174013891E-3</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -7602,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>187</v>
       </c>
@@ -7610,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>0.005835900939997529</v>
+        <v>5.8359009399975292E-3</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -7625,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>188</v>
       </c>
@@ -7633,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0.05643527095499738</v>
+        <v>5.6435270954997382E-2</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -7648,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>116</v>
       </c>
@@ -7671,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>157</v>
       </c>
@@ -7694,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>155</v>
       </c>
@@ -7717,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>154</v>
       </c>
@@ -7740,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -7754,16 +7811,16 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="F131">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G131">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>114</v>
       </c>
@@ -7786,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -7809,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>158</v>
       </c>
@@ -7817,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>0.1823392053939591</v>
+        <v>0.18233920539395909</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -7838,14 +7895,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -7865,30 +7922,30 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>45.97007414397297</v>
+        <v>45.970074143972973</v>
       </c>
       <c r="C2">
-        <v>68.98472969967</v>
+        <v>68.984729699669998</v>
       </c>
       <c r="D2">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="E2">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="F2">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -7896,45 +7953,45 @@
         <v>15.67784480342989</v>
       </c>
       <c r="C3">
-        <v>3.871357051035098</v>
+        <v>3.8713570510350981</v>
       </c>
       <c r="D3">
-        <v>5.956605887661726E-05</v>
+        <v>5.9566058876617257E-5</v>
       </c>
       <c r="E3">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="F3">
         <v>1.082467449009528E-16</v>
       </c>
       <c r="G3">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4">
-        <v>14.08622731063138</v>
+        <v>14.086227310631379</v>
       </c>
       <c r="C4">
-        <v>3.799236687186968</v>
+        <v>3.7992366871869678</v>
       </c>
       <c r="D4">
-        <v>0.01184560625183503</v>
+        <v>1.184560625183503E-2</v>
       </c>
       <c r="E4">
-        <v>0.002064787488395958</v>
+        <v>2.064787488395958E-3</v>
       </c>
       <c r="F4">
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G4">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -7957,30 +8014,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6">
-        <v>9.341052302624291</v>
+        <v>9.3410523026242913</v>
       </c>
       <c r="C6">
-        <v>13.70440906511612</v>
+        <v>13.704409065116121</v>
       </c>
       <c r="D6">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="E6">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="F6">
-        <v>7.494005416219807E-17</v>
+        <v>7.4940054162198071E-17</v>
       </c>
       <c r="G6">
         <v>1.332267629550188E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
@@ -8003,18 +8060,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B8">
-        <v>5.968349733723531</v>
+        <v>5.9683497337235307</v>
       </c>
       <c r="C8">
         <v>2.28127603451314</v>
       </c>
       <c r="D8">
-        <v>2.410248534706616E-06</v>
+        <v>2.410248534706616E-6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8023,15 +8080,15 @@
         <v>6.661338147750939E-17</v>
       </c>
       <c r="G8">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B9">
-        <v>5.496021684301607</v>
+        <v>5.4960216843016072</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8049,35 +8106,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B10">
-        <v>4.193264336239396</v>
+        <v>4.1932643362393964</v>
       </c>
       <c r="C10">
-        <v>0.7966360046545108</v>
+        <v>0.79663600465451079</v>
       </c>
       <c r="D10">
-        <v>1.548832313679194E-05</v>
+        <v>1.548832313679194E-5</v>
       </c>
       <c r="E10">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="F10">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="G10">
         <v>2.164934898019055E-16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B11">
-        <v>3.799893237757822</v>
+        <v>3.7998932377578218</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8095,15 +8152,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B12">
-        <v>3.734772045542152</v>
+        <v>3.7347720455421518</v>
       </c>
       <c r="C12">
-        <v>2.741370922398185</v>
+        <v>2.7413709223981848</v>
       </c>
       <c r="D12">
         <v>1.415534356397074E-16</v>
@@ -8112,50 +8169,50 @@
         <v>2.164934898019055E-16</v>
       </c>
       <c r="F12">
-        <v>1.915134717478395E-16</v>
+        <v>1.9151347174783949E-16</v>
       </c>
       <c r="G12">
         <v>2.164934898019055E-16</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B13">
-        <v>3.011315040293845</v>
+        <v>3.0113150402938449</v>
       </c>
       <c r="C13">
-        <v>0.8381941864053086</v>
+        <v>0.83819418640530863</v>
       </c>
       <c r="D13">
-        <v>5.149135140086747E-05</v>
+        <v>5.1491351400867469E-5</v>
       </c>
       <c r="E13">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="F13">
         <v>1.332267629550188E-16</v>
       </c>
       <c r="G13">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B14">
-        <v>2.490353888941112</v>
+        <v>2.4903538889411121</v>
       </c>
       <c r="C14">
-        <v>1.117130896466448</v>
+        <v>1.1171308964664479</v>
       </c>
       <c r="D14">
         <v>2.164934898019055E-16</v>
       </c>
       <c r="E14">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="F14">
         <v>2.498001805406602E-17</v>
@@ -8164,12 +8221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B15">
-        <v>2.477340916954218</v>
+        <v>2.4773409169542182</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8187,12 +8244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B16">
-        <v>1.987256678130788</v>
+        <v>1.9872566781307881</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8210,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -8218,27 +8275,27 @@
         <v>1.978821947514771</v>
       </c>
       <c r="C17">
-        <v>1.947594736627336</v>
+        <v>1.9475947366273361</v>
       </c>
       <c r="D17">
         <v>1.748601263784622E-16</v>
       </c>
       <c r="E17">
-        <v>1.998401444325282E-16</v>
+        <v>1.9984014443252821E-16</v>
       </c>
       <c r="F17">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G17">
-        <v>2.498001805406602E-16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>2.4980018054066022E-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B18">
-        <v>1.688504403872778</v>
+        <v>1.6885044038727779</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -8256,12 +8313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B19">
-        <v>1.391211422036506</v>
+        <v>1.3912114220365059</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -8279,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>194</v>
       </c>
@@ -8293,7 +8350,7 @@
         <v>1.748601263784622E-16</v>
       </c>
       <c r="E20">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="F20">
         <v>4.163336342344337E-17</v>
@@ -8302,12 +8359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B21">
-        <v>0.7639090843461238</v>
+        <v>0.76390908434612381</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -8325,41 +8382,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B22">
-        <v>0.6790546510411252</v>
+        <v>0.67905465104112517</v>
       </c>
       <c r="C22">
-        <v>0.2047734591692729</v>
+        <v>0.20477345916927289</v>
       </c>
       <c r="D22">
-        <v>3.593723663578019E-05</v>
+        <v>3.593723663578019E-5</v>
       </c>
       <c r="E22">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="F22">
         <v>1.082467449009528E-16</v>
       </c>
       <c r="G22">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B23">
-        <v>0.507918562303427</v>
+        <v>0.50791856230342702</v>
       </c>
       <c r="C23">
-        <v>1.893745756106506</v>
+        <v>1.8937457561065061</v>
       </c>
       <c r="D23">
-        <v>7.120243433356154E-07</v>
+        <v>7.1202434333561544E-7</v>
       </c>
       <c r="E23">
         <v>1.332267629550188E-16</v>
@@ -8368,10 +8425,10 @@
         <v>0.1213066123185052</v>
       </c>
       <c r="G23">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>195</v>
       </c>
@@ -8385,44 +8442,44 @@
         <v>1.332267629550188E-16</v>
       </c>
       <c r="E24">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="F24">
         <v>4.163336342344337E-17</v>
       </c>
       <c r="G24">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B25">
-        <v>0.4400883251160712</v>
+        <v>0.44008832511607121</v>
       </c>
       <c r="C25">
         <v>5.904604490497964</v>
       </c>
       <c r="D25">
-        <v>2.398198505582094E-06</v>
+        <v>2.3981985055820939E-6</v>
       </c>
       <c r="E25">
-        <v>2.664535259100376E-16</v>
+        <v>2.6645352591003761E-16</v>
       </c>
       <c r="F25">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="G25">
         <v>1.332267629550188E-16</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B26">
-        <v>0.3375945486475608</v>
+        <v>0.33759454864756078</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -8440,35 +8497,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B27">
-        <v>0.2647240828133606</v>
+        <v>0.26472408281336057</v>
       </c>
       <c r="C27">
         <v>2.287919420654875</v>
       </c>
       <c r="D27">
-        <v>1.252322935077488E-06</v>
+        <v>1.252322935077488E-6</v>
       </c>
       <c r="E27">
-        <v>2.997602166487923E-16</v>
+        <v>2.9976021664879229E-16</v>
       </c>
       <c r="F27">
-        <v>0.01043208564867308</v>
+        <v>1.0432085648673079E-2</v>
       </c>
       <c r="G27">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B28">
-        <v>0.2231685482619278</v>
+        <v>0.22316854826192781</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -8486,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -8494,22 +8551,22 @@
         <v>0.1251120201500539</v>
       </c>
       <c r="C29">
-        <v>0.5297981732587972</v>
+        <v>0.52979817325879719</v>
       </c>
       <c r="D29">
-        <v>1.713066836217525E-07</v>
+        <v>1.7130668362175249E-7</v>
       </c>
       <c r="E29">
-        <v>1.831867990631508E-16</v>
+        <v>1.8318679906315079E-16</v>
       </c>
       <c r="F29">
         <v>1.332267629550188E-16</v>
       </c>
       <c r="G29">
-        <v>1.831867990631508E-16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>1.8318679906315079E-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -8517,22 +8574,22 @@
         <v>0.1168024636515302</v>
       </c>
       <c r="C30">
-        <v>0.3741584571511329</v>
+        <v>0.37415845715113288</v>
       </c>
       <c r="D30">
-        <v>4.928813811838628E-07</v>
+        <v>4.9288138118386278E-7</v>
       </c>
       <c r="E30">
-        <v>2.664535259100376E-16</v>
+        <v>2.6645352591003761E-16</v>
       </c>
       <c r="F30">
-        <v>0.03805970116878513</v>
+        <v>3.8059701168785133E-2</v>
       </c>
       <c r="G30">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -8540,188 +8597,188 @@
         <v>0.1063392205980604</v>
       </c>
       <c r="C31">
-        <v>1.845306103888409</v>
+        <v>1.8453061038884091</v>
       </c>
       <c r="D31">
-        <v>9.50601833574205E-07</v>
+        <v>9.5060183357420505E-7</v>
       </c>
       <c r="E31">
-        <v>0.07171701103639957</v>
+        <v>7.1717011036399575E-2</v>
       </c>
       <c r="F31">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G31">
-        <v>1.165734175856414E-16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1.1657341758564139E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B32">
-        <v>0.09537766860130539</v>
+        <v>9.5377668601305393E-2</v>
       </c>
       <c r="C32">
-        <v>0.3530231867196257</v>
+        <v>0.35302318671962568</v>
       </c>
       <c r="D32">
-        <v>1.351909500096893E-07</v>
+        <v>1.351909500096893E-7</v>
       </c>
       <c r="E32">
-        <v>1.498801083243961E-16</v>
+        <v>1.4988010832439609E-16</v>
       </c>
       <c r="F32">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G32">
         <v>3.497202527569243E-16</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B33">
-        <v>0.08641958859430829</v>
+        <v>8.6419588594308289E-2</v>
       </c>
       <c r="C33">
-        <v>0.4596367067236493</v>
+        <v>0.45963670672364931</v>
       </c>
       <c r="D33">
-        <v>5.163515908263028E-07</v>
+        <v>5.1635159082630275E-7</v>
       </c>
       <c r="E33">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="F33">
-        <v>0.2670314714607321</v>
+        <v>0.26703147146073208</v>
       </c>
       <c r="G33">
-        <v>1.665334536937735E-16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34">
-        <v>0.07881598541302566</v>
+        <v>7.881598541302566E-2</v>
       </c>
       <c r="C34">
         <v>1.226439480529421</v>
       </c>
       <c r="D34">
-        <v>4.915818468029243E-06</v>
+        <v>4.9158184680292431E-6</v>
       </c>
       <c r="E34">
-        <v>0.06298301610238821</v>
+        <v>6.2983016102388212E-2</v>
       </c>
       <c r="F34">
-        <v>7.494005416219807E-17</v>
+        <v>7.4940054162198071E-17</v>
       </c>
       <c r="G34">
-        <v>4.996003610813205E-17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>4.9960036108132052E-17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B35">
-        <v>0.07162550587577102</v>
+        <v>7.1625505875771017E-2</v>
       </c>
       <c r="C35">
-        <v>2.76774157139407</v>
+        <v>2.7677415713940698</v>
       </c>
       <c r="D35">
-        <v>9.06275946122026E-08</v>
+        <v>9.0627594612202597E-8</v>
       </c>
       <c r="E35">
         <v>2.164934898019055E-16</v>
       </c>
       <c r="F35">
-        <v>1.582067810090848E-16</v>
+        <v>1.5820678100908481E-16</v>
       </c>
       <c r="G35">
-        <v>2.664535259100376E-16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>2.6645352591003761E-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B36">
-        <v>0.07044911948575212</v>
+        <v>7.0449119485752124E-2</v>
       </c>
       <c r="C36">
-        <v>0.7012399061213507</v>
+        <v>0.70123990612135068</v>
       </c>
       <c r="D36">
-        <v>2.050789648766482E-07</v>
+        <v>2.0507896487664819E-7</v>
       </c>
       <c r="E36">
         <v>2.831068712794149E-16</v>
       </c>
       <c r="F36">
-        <v>0.004357347118429283</v>
+        <v>4.357347118429283E-3</v>
       </c>
       <c r="G36">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B37">
-        <v>0.06757867069597356</v>
+        <v>6.7578670695973564E-2</v>
       </c>
       <c r="C37">
-        <v>0.8760294443605779</v>
+        <v>0.87602944436057795</v>
       </c>
       <c r="D37">
-        <v>6.838048648433182E-06</v>
+        <v>6.8380486484331818E-6</v>
       </c>
       <c r="E37">
-        <v>0.04894081175531682</v>
+        <v>4.8940811755316817E-2</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B38">
-        <v>0.06459904374254126</v>
+        <v>6.4599043742541259E-2</v>
       </c>
       <c r="C38">
-        <v>0.0165613208897744</v>
+        <v>1.6561320889774401E-2</v>
       </c>
       <c r="D38">
-        <v>4.627341872176505E-08</v>
+        <v>4.6273418721765047E-8</v>
       </c>
       <c r="E38">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="F38">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G38">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B39">
-        <v>0.04668912210443495</v>
+        <v>4.6689122104434953E-2</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8739,67 +8796,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.04606201432020516</v>
+        <v>4.6062014320205159E-2</v>
       </c>
       <c r="C40">
-        <v>0.2363516227797992</v>
+        <v>0.23635162277979921</v>
       </c>
       <c r="D40">
-        <v>0.01431727447502134</v>
+        <v>1.431727447502134E-2</v>
       </c>
       <c r="E40">
-        <v>0.02484334081172161</v>
+        <v>2.4843340811721609E-2</v>
       </c>
       <c r="F40">
-        <v>0.01768817777098082</v>
+        <v>1.768817777098082E-2</v>
       </c>
       <c r="G40">
-        <v>0.02961533333333335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>2.9615333333333351E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B41">
-        <v>0.04317408797833995</v>
+        <v>4.3174087978339951E-2</v>
       </c>
       <c r="C41">
         <v>0.1041878584892451</v>
       </c>
       <c r="D41">
-        <v>4.953994855280697E-06</v>
+        <v>4.9539948552806974E-6</v>
       </c>
       <c r="E41">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="F41">
-        <v>0.09649262840392037</v>
+        <v>9.6492628403920366E-2</v>
       </c>
       <c r="G41">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.03490774033486321</v>
+        <v>3.4907740334863213E-2</v>
       </c>
       <c r="C42">
-        <v>0.6952958283706395</v>
+        <v>0.69529582837063952</v>
       </c>
       <c r="D42">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="E42">
-        <v>0.02169580840518713</v>
+        <v>2.1695808405187131E-2</v>
       </c>
       <c r="F42">
         <v>4.163336342344337E-17</v>
@@ -8808,81 +8865,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B43">
-        <v>0.03389033741452945</v>
+        <v>3.3890337414529452E-2</v>
       </c>
       <c r="C43">
-        <v>0.1336413820726925</v>
+        <v>0.13364138207269249</v>
       </c>
       <c r="D43">
-        <v>4.650349613721794E-09</v>
+        <v>4.650349613721794E-9</v>
       </c>
       <c r="E43">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="F43">
-        <v>0.07809124860311625</v>
+        <v>7.8091248603116253E-2</v>
       </c>
       <c r="G43">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B44">
-        <v>0.02425360713658282</v>
+        <v>2.4253607136582821E-2</v>
       </c>
       <c r="C44">
-        <v>0.1983843510786198</v>
+        <v>0.19838435107861979</v>
       </c>
       <c r="D44">
-        <v>1.940301852720871E-06</v>
+        <v>1.940301852720871E-6</v>
       </c>
       <c r="E44">
-        <v>0.007491458333333284</v>
+        <v>7.491458333333284E-3</v>
       </c>
       <c r="F44">
-        <v>0.005508229041066751</v>
+        <v>5.5082290410667506E-3</v>
       </c>
       <c r="G44">
-        <v>0.03562033333333343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>3.5620333333333427E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B45">
-        <v>0.02283647505249266</v>
+        <v>2.2836475052492661E-2</v>
       </c>
       <c r="C45">
         <v>1.304102122776666</v>
       </c>
       <c r="D45">
-        <v>0.06171597455443587</v>
+        <v>6.1715974554435872E-2</v>
       </c>
       <c r="E45">
-        <v>0.01396215161020908</v>
+        <v>1.396215161020908E-2</v>
       </c>
       <c r="F45">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="G45">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B46">
-        <v>0.01626042608727953</v>
+        <v>1.6260426087279529E-2</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -8900,274 +8957,274 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B47">
-        <v>0.0113388203777145</v>
+        <v>1.13388203777145E-2</v>
       </c>
       <c r="C47">
-        <v>0.1458472011052538</v>
+        <v>0.14584720110525379</v>
       </c>
       <c r="D47">
-        <v>7.551549341677788E-08</v>
+        <v>7.5515493416777876E-8</v>
       </c>
       <c r="E47">
-        <v>2.997602166487923E-16</v>
+        <v>2.9976021664879229E-16</v>
       </c>
       <c r="F47">
-        <v>1.249000902703301E-16</v>
+        <v>1.2490009027033011E-16</v>
       </c>
       <c r="G47">
-        <v>1.998401444325282E-16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1.9984014443252821E-16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B48">
-        <v>0.01017018340092726</v>
+        <v>1.0170183400927259E-2</v>
       </c>
       <c r="C48">
-        <v>0.02081633799837162</v>
+        <v>2.0816337998371619E-2</v>
       </c>
       <c r="D48">
-        <v>0.002107315813812158</v>
+        <v>2.1073158138121581E-3</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.165734175856414E-16</v>
+        <v>1.1657341758564139E-16</v>
       </c>
       <c r="G48">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B49">
-        <v>0.007821459283757371</v>
+        <v>7.8214592837573711E-3</v>
       </c>
       <c r="C49">
-        <v>0.2644314607475284</v>
+        <v>0.26443146074752838</v>
       </c>
       <c r="D49">
-        <v>2.158464036672303E-08</v>
+        <v>2.1584640366723029E-8</v>
       </c>
       <c r="E49">
-        <v>0.004829071359328857</v>
+        <v>4.8290713593288574E-3</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B50">
-        <v>0.006154284166934332</v>
+        <v>6.1542841669343321E-3</v>
       </c>
       <c r="C50">
-        <v>0.09848676349159406</v>
+        <v>9.8486763491594062E-2</v>
       </c>
       <c r="D50">
-        <v>4.359975544016015E-07</v>
+        <v>4.3599755440160152E-7</v>
       </c>
       <c r="E50">
-        <v>0.00501995833333343</v>
+        <v>5.01995833333343E-3</v>
       </c>
       <c r="F50">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G50">
-        <v>1.498801083243961E-16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>1.4988010832439609E-16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B51">
-        <v>0.004031782597062517</v>
+        <v>4.0317825970625169E-3</v>
       </c>
       <c r="C51">
-        <v>0.1741985416593685</v>
+        <v>0.17419854165936849</v>
       </c>
       <c r="D51">
-        <v>8.282721841723628E-09</v>
+        <v>8.2827218417236281E-9</v>
       </c>
       <c r="E51">
-        <v>0.003018107601560033</v>
+        <v>3.018107601560033E-3</v>
       </c>
       <c r="F51">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G51">
-        <v>1.665334536937735E-16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1.6653345369377351E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B52">
-        <v>0.00284940579861086</v>
+        <v>2.8494057986108599E-3</v>
       </c>
       <c r="C52">
-        <v>0.001008725905190233</v>
+        <v>1.0087259051902329E-3</v>
       </c>
       <c r="D52">
-        <v>4.199793137044106E-06</v>
+        <v>4.1997931370441058E-6</v>
       </c>
       <c r="E52">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="F52">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G52">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B53">
-        <v>0.002553129055260151</v>
+        <v>2.553129055260151E-3</v>
       </c>
       <c r="C53">
-        <v>0.009029925691832918</v>
+        <v>9.0299256918329185E-3</v>
       </c>
       <c r="D53">
-        <v>1.912058927855398E-09</v>
+        <v>1.9120589278553979E-9</v>
       </c>
       <c r="E53">
         <v>2.164934898019055E-16</v>
       </c>
       <c r="F53">
-        <v>0.0008067616266106386</v>
+        <v>8.0676162661063862E-4</v>
       </c>
       <c r="G53">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.001901110770517356</v>
+        <v>1.901110770517356E-3</v>
       </c>
       <c r="C54">
-        <v>0.01181293410465594</v>
+        <v>1.1812934104655941E-2</v>
       </c>
       <c r="D54">
-        <v>8.384039736131222E-07</v>
+        <v>8.3840397361312215E-7</v>
       </c>
       <c r="E54">
-        <v>1.998401444325282E-16</v>
+        <v>1.9984014443252821E-16</v>
       </c>
       <c r="F54">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G54">
-        <v>0.00773333333333347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>7.7333333333334704E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B55">
-        <v>0.000514003887163561</v>
+        <v>5.14003887163561E-4</v>
       </c>
       <c r="C55">
-        <v>5.166465324057956E-07</v>
+        <v>5.1664653240579557E-7</v>
       </c>
       <c r="D55">
-        <v>1.186347294651613E-07</v>
+        <v>1.186347294651613E-7</v>
       </c>
       <c r="E55">
         <v>2.164934898019055E-16</v>
       </c>
       <c r="F55">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G55">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B56">
-        <v>0.0004071522974870234</v>
+        <v>4.0715229748702339E-4</v>
       </c>
       <c r="C56">
-        <v>0.006848148187126635</v>
+        <v>6.8481481871266346E-3</v>
       </c>
       <c r="D56">
-        <v>4.684700165041855E-07</v>
+        <v>4.6847001650418553E-7</v>
       </c>
       <c r="E56">
-        <v>0.0003749129540875473</v>
+        <v>3.7491295408754728E-4</v>
       </c>
       <c r="F56">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="G56">
-        <v>3.330669073875469E-17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>3.3306690738754689E-17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B57">
-        <v>0.0002035500862620054</v>
+        <v>2.0355008626200539E-4</v>
       </c>
       <c r="C57">
-        <v>2.092731588021479E-09</v>
+        <v>2.092731588021479E-9</v>
       </c>
       <c r="D57">
-        <v>2.597576986840267E-10</v>
+        <v>2.5975769868402671E-10</v>
       </c>
       <c r="E57">
-        <v>8.326672684688674E-17</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="F57">
-        <v>4.996003610813205E-17</v>
+        <v>4.9960036108132052E-17</v>
       </c>
       <c r="G57">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B58">
-        <v>0.0001741751740132358</v>
+        <v>1.7417517401323581E-4</v>
       </c>
       <c r="C58">
-        <v>5.020219494867861E-05</v>
+        <v>5.0202194948678611E-5</v>
       </c>
       <c r="D58">
-        <v>1.554412667331695E-07</v>
+        <v>1.5544126673316949E-7</v>
       </c>
       <c r="E58">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="F58">
         <v>6.661338147750939E-17</v>
@@ -9176,30 +9233,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B59">
-        <v>2.1316282072803E-15</v>
+        <v>2.1316282072803001E-15</v>
       </c>
       <c r="C59">
-        <v>3.080868893334809E-16</v>
+        <v>3.0808688933348088E-16</v>
       </c>
       <c r="D59">
-        <v>1.558480706154164E-08</v>
+        <v>1.558480706154164E-8</v>
       </c>
       <c r="E59">
         <v>1.332267629550188E-16</v>
       </c>
       <c r="F59">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="G59">
-        <v>9.992007221626409E-17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>9.9920072216264091E-17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
@@ -9207,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0.04456812351416746</v>
+        <v>4.456812351416746E-2</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -9222,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>52</v>
       </c>
@@ -9230,10 +9287,10 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>6.13737981945872</v>
+        <v>6.1373798194587197</v>
       </c>
       <c r="D61">
-        <v>0.1055321030085526</v>
+        <v>0.10553210300855261</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -9245,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
@@ -9253,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.04031086581002728</v>
+        <v>4.0310865810027283E-2</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -9268,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
@@ -9276,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>4.168306232154902</v>
+        <v>4.1683062321549018</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -9291,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>107</v>
       </c>
@@ -9299,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>2.829480357944942</v>
+        <v>2.8294803579449419</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -9314,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>106</v>
       </c>
@@ -9322,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0.009890544583675465</v>
+        <v>9.890544583675465E-3</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9337,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>26</v>
       </c>
@@ -9360,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>109</v>
       </c>
@@ -9368,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.1239711591864626</v>
+        <v>0.12397115918646261</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9383,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
@@ -9406,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>105</v>
       </c>
@@ -9414,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.1454095738043042</v>
+        <v>0.14540957380430419</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9429,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>113</v>
       </c>
@@ -9437,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0.001876203010073985</v>
+        <v>1.8762030100739849E-3</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9452,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -9475,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>118</v>
       </c>
@@ -9483,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>8.582867484552297</v>
+        <v>8.5828674845522972</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9498,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>119</v>
       </c>
@@ -9506,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.134928755559288</v>
+        <v>0.13492875555928799</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9521,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>120</v>
       </c>
@@ -9529,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.5308647617077364</v>
+        <v>0.53086476170773644</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9544,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>121</v>
       </c>
@@ -9567,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>122</v>
       </c>
@@ -9590,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -9598,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0.03589687334166793</v>
+        <v>3.5896873341667933E-2</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -9613,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>123</v>
       </c>
@@ -9621,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0.005995761854413528</v>
+        <v>5.9957618544135283E-3</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -9636,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>124</v>
       </c>
@@ -9644,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0.0584741742616786</v>
+        <v>5.8474174261678599E-2</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -9659,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>125</v>
       </c>
@@ -9667,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0.2786706700396591</v>
+        <v>0.27867067003965912</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -9682,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>126</v>
       </c>
@@ -9690,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1.004753056082153</v>
+        <v>1.0047530560821529</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -9705,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>127</v>
       </c>
@@ -9713,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>4.022433059888512</v>
+        <v>4.0224330598885123</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -9728,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>128</v>
       </c>
@@ -9736,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0.0004048902154128342</v>
+        <v>4.048902154128342E-4</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -9751,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>130</v>
       </c>
@@ -9759,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0.1677889928332623</v>
+        <v>0.16778899283326229</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -9774,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>50</v>
       </c>
@@ -9782,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>17.17564568990552</v>
+        <v>17.175645689905519</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -9797,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>129</v>
       </c>
@@ -9805,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0.688416020962524</v>
+        <v>0.68841602096252397</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -9820,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>154</v>
       </c>
@@ -9828,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>0.002505133562752016</v>
+        <v>2.5051335627520161E-3</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -9843,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
@@ -9851,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0.02511420247138766</v>
+        <v>2.511420247138766E-2</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -9866,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>114</v>
       </c>
@@ -9874,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.02330217587432275</v>
+        <v>2.3302175874322751E-2</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -9889,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>136</v>
       </c>
@@ -9912,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>137</v>
       </c>
@@ -9920,22 +9977,22 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>2.342347215919619</v>
+        <v>2.3423472159196188</v>
       </c>
       <c r="D91">
-        <v>0.007262464816732666</v>
+        <v>7.2624648167326656E-3</v>
       </c>
       <c r="E91">
-        <v>9.992007221626409E-17</v>
+        <v>9.9920072216264091E-17</v>
       </c>
       <c r="F91">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G91">
-        <v>8.326672684688674E-17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>8.3266726846886741E-17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>163</v>
       </c>
@@ -9943,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>8.447035318344311</v>
+        <v>8.4470353183443105</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -9958,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>200</v>
       </c>
@@ -9981,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>201</v>
       </c>
@@ -9989,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0.005480714382862661</v>
+        <v>5.4807143828626611E-3</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -10004,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>202</v>
       </c>
@@ -10012,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0.1336411119432563</v>
+        <v>0.13364111194325631</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -10027,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>203</v>
       </c>
@@ -10050,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>204</v>
       </c>
@@ -10073,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>205</v>
       </c>
@@ -10096,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>206</v>
       </c>
@@ -10119,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
@@ -10142,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
@@ -10165,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
@@ -10173,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>8.705221786143037</v>
+        <v>8.7052217861430368</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -10188,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>207</v>
       </c>
@@ -10211,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>208</v>
       </c>
@@ -10234,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>135</v>
       </c>
@@ -10257,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>150</v>
       </c>
@@ -10280,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>151</v>
       </c>
@@ -10303,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>158</v>
       </c>
@@ -10311,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1.060266524935182</v>
+        <v>1.0602665249351819</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -10326,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>132</v>
       </c>
@@ -10337,19 +10394,19 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>8.326672684688674E-18</v>
+        <v>8.3266726846886737E-18</v>
       </c>
       <c r="E109">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="F109">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="G109">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>142</v>
       </c>
@@ -10357,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0.009492984557133355</v>
+        <v>9.4929845571333545E-3</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -10372,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>209</v>
       </c>
@@ -10395,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>155</v>
       </c>
@@ -10403,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0.4706813799770965</v>
+        <v>0.47068137997709653</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -10418,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>156</v>
       </c>
@@ -10426,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0.01421812648311933</v>
+        <v>1.421812648311933E-2</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -10441,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>157</v>
       </c>
@@ -10449,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0.005829278956731798</v>
+        <v>5.8292789567317982E-3</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -10464,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>51</v>
       </c>
@@ -10472,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>9.85360652350565</v>
+        <v>9.8536065235056505</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -10487,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>152</v>
       </c>
@@ -10495,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0.00360408487938898</v>
+        <v>3.6040848793889801E-3</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -10510,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>29</v>
       </c>
@@ -10521,7 +10578,7 @@
         <v>1.685715924732043</v>
       </c>
       <c r="D117">
-        <v>0.09316815634498117</v>
+        <v>9.3168156344981171E-2</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -10530,10 +10587,10 @@
         <v>4.163336342344337E-17</v>
       </c>
       <c r="G117">
-        <v>1.665334536937735E-17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>1.6653345369377351E-17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -10541,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>0.009099197629265967</v>
+        <v>9.0991976292659673E-3</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -10556,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
@@ -10564,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>1.263722322497005</v>
+        <v>1.2637223224970049</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -10579,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>164</v>
       </c>
@@ -10587,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.6772511312195622</v>
+        <v>0.67725113121956215</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -10602,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>165</v>
       </c>
@@ -10610,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>0.06408533817644421</v>
+        <v>6.4085338176444212E-2</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -10625,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>166</v>
       </c>
@@ -10633,22 +10690,22 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>0.09895950732454808</v>
+        <v>9.8959507324548085E-2</v>
       </c>
       <c r="D122">
-        <v>0.009541600606069067</v>
+        <v>9.5416006060690672E-3</v>
       </c>
       <c r="E122">
-        <v>3.330669073875469E-17</v>
+        <v>3.3306690738754689E-17</v>
       </c>
       <c r="F122">
-        <v>1.665334536937735E-17</v>
+        <v>1.6653345369377351E-17</v>
       </c>
       <c r="G122">
         <v>6.661338147750939E-17</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>153</v>
       </c>
